--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnquynh-laptop\source\repos\ICMSsolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26489DC-522E-4822-B7B0-6F0F9EB1FAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9983F70-4632-4DE8-B4B2-DF8FA9DAD5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="748" activeTab="5" xr2:uid="{919F9413-3E8B-4FC3-9CC5-F2E101C40464}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="748" activeTab="9" xr2:uid="{919F9413-3E8B-4FC3-9CC5-F2E101C40464}"/>
   </bookViews>
   <sheets>
     <sheet name="City" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>nnquynh-laptop:</t>
         </r>
@@ -74,7 +74,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Relative Uncertinaty (%)
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="553">
   <si>
     <t>An Giang</t>
   </si>
@@ -1562,36 +1562,9 @@
     <t>Dương Thị Nhung</t>
   </si>
   <si>
-    <t>TQskzK3iLfbRVHeM1muvBCiKribfl6lh8+o91hb74G3OvsybvkzpPI4S3KIeWTXAiwlUU0iSxWi4wSuS8mokSA==</t>
-  </si>
-  <si>
-    <t>f2Qf2j1eAZClDYP29qkk7/riT4Gw0C4/tZcyMW4f7daSj2MFIz6TPPD4KzKPVW9ZF4sl3Dz7zmPifGPNWKcK3w==</t>
-  </si>
-  <si>
-    <t>cYG4QUrPG6QEpRDXwqUC66aFPqRSSSiFJTHI+VyigoLL6d7vxIfofXWyJVvb9L55t80WL3qqg4k+egxtfplRDg==</t>
-  </si>
-  <si>
-    <t>JglrCxpRMDD1LFvthcjvA+ct7wnIK50Ukck7dpIU6RCWegfGusKRxzduTEHg9GyEK4WZE+zya31iXeqONI3FTQ==</t>
-  </si>
-  <si>
     <t>tMCtNNh0nlmHOpv06uidQd1FS0ckiRDKU09ytmppu0u0dqyZowqjgt8bqItNCwz3RuKNYJYDp5Klqka552nlNQ==</t>
   </si>
   <si>
-    <t>2iT3AfhVRZ2arYq0QZdSyRCRttLP0L7KjI4UeoIGae85nBbasw5odwT/axqgXlo/1YzvdqWhg41+Cu+R+BP/5Q==</t>
-  </si>
-  <si>
-    <t>+E1es4c/AnApwiOCkMgtmOfExpTTzYHxZiLFQ2WIbWsJGUSUXzIIAElQf7PWQBl+abXJ8D1IXhQKywJeaF5ebg==</t>
-  </si>
-  <si>
-    <t>TXukIr69sD/acAhanFVTZh44HrSibO9jOUb9LIWt0RrGJe0pfHGBSLzzBdCBWiQcfDQ9GAcFCa5g5tcVA3wBjg==</t>
-  </si>
-  <si>
-    <t>73rhkewtQk97o09eOYHuXreXfWymiupSie6Ts2JIzdNgJRxdxHA4bASomRRHetOjzH7AZPhWrIFMVoK3ePdZ1g==</t>
-  </si>
-  <si>
-    <t>9ITEEAbeXcDswf8OlLPL6I53V7ewiKlsWtH/wkBx0im77qfzE1thi49YkBhdZVWTNbxtkdfy584zqZVf6va5FA==</t>
-  </si>
-  <si>
     <t>Tia X ISO N100</t>
   </si>
   <si>
@@ -1749,6 +1722,30 @@
   </si>
   <si>
     <t>AccessCode</t>
+  </si>
+  <si>
+    <t>q+tmTNslobCit/b76f1S2oPDVW5BKYwsExTklgzqKap98+GPTuxZnTCtHfWQwCNfRmuAyicp09LvHolelYJhuw==</t>
+  </si>
+  <si>
+    <t>Qpg33dheP8YId/V227rSwJBGsaFBiCiS+gSmH7v3UGe/srMWJLKxaXixYtGn8bVjDTAZUTLkUWd2gozVxGdL4Q==</t>
+  </si>
+  <si>
+    <t>mrPKbRbcgI3Y7GyXhTJ1YGYtYmDPiyLMTBcVQr44EKNCqt7iQv6QJj8syq5r5E2Kz+E99I8XDod1fMb+QgOWQA==</t>
+  </si>
+  <si>
+    <t>BeNMFjHskO3r+12WlQA19WT8do+abIFeOcpjNfZJb7dJ45BaLOuI3u0fuoYMEwnTNUX6JRmhkxGcR8I/8iLhQA==</t>
+  </si>
+  <si>
+    <t>P2tpNrpjnDjmn09SUfEYS+B7guWs2dYTDqEk2EwKgubblvNXSsFTshkdPR1ooop1EZl6q/qazCZR7pTjDmIgSw==</t>
+  </si>
+  <si>
+    <t>BQ+sFebCIVZkcxHJ3Yf+KgfHov0d1LAkuffI043niSoS8Q+vR5uEfcF/TUSPONsVOUWVx/Gowz+7nVmdkC6xiw==</t>
+  </si>
+  <si>
+    <t>79smKIES14OHozxHO7CdtyeYMIBz7tX/C+7Zz0osYsz/WmGoUg9vriHKaBPDyIr6dywcVTwUI+Ub/D5ut/i+GQ==</t>
+  </si>
+  <si>
+    <t>YU8M7uEnGPjxcgFRhsIYY0zmZ2R27HhKSOPhctSc1Xo6DN7uCucjctayrOFEychlsVjWevlpywZAubG41J8Wyw==</t>
   </si>
 </sst>
 </file>
@@ -1778,14 +1775,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2709,7 +2706,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C17" s="3">
         <v>262</v>
@@ -2727,7 +2724,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C18" s="3">
         <v>261</v>
@@ -2871,7 +2868,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C26" s="3">
         <v>24</v>
@@ -3465,7 +3462,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C59" s="3">
         <v>234</v>
@@ -3601,9 +3598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E163219-7505-435D-893C-049CC5135536}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3638,7 +3635,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="D2" s="26">
         <v>5</v>
@@ -3648,7 +3645,7 @@
       </c>
       <c r="G2" s="45" t="str">
         <f t="shared" ref="G2:G5" si="0">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = '",A2,"') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('",A2,"' , N'",B2, " ' ", ",'", C2,  "', ", D2, ",",E2,"); END")</f>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'Admin') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('Admin' , N'Admin ' ,'TQskzK3iLfbRVHeM1muvBCiKribfl6lh8+o91hb74G3OvsybvkzpPI4S3KIeWTXAiwlUU0iSxWi4wSuS8mokSA==', 5,1); END</v>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'Admin') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('Admin' , N'Admin ' ,'WVgZZJlK4DiBSMOfTVUXTQy+IdL6U0848zWYE83qp6TvPgIRCfn/x9vjecqzP08HQcnMihHCdw8qujAORNx9Yg==', 5,1); END</v>
       </c>
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
@@ -3666,7 +3663,7 @@
       <c r="U2" s="45"/>
       <c r="V2" s="45"/>
     </row>
-    <row r="3" spans="1:22" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="26" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>477</v>
       </c>
@@ -3674,7 +3671,7 @@
         <v>92</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="D3" s="26">
         <v>4</v>
@@ -3684,7 +3681,7 @@
       </c>
       <c r="G3" s="45" t="str">
         <f t="shared" si="0"/>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'lnThiem') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('lnThiem' , N'Lê Ngọc Thiệm ' ,'f2Qf2j1eAZClDYP29qkk7/riT4Gw0C4/tZcyMW4f7daSj2MFIz6TPPD4KzKPVW9ZF4sl3Dz7zmPifGPNWKcK3w==', 4,1); END</v>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'lnThiem') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('lnThiem' , N'Lê Ngọc Thiệm ' ,'q+tmTNslobCit/b76f1S2oPDVW5BKYwsExTklgzqKap98+GPTuxZnTCtHfWQwCNfRmuAyicp09LvHolelYJhuw==', 4,1); END</v>
       </c>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
@@ -3710,7 +3707,7 @@
         <v>91</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="D4" s="26">
         <v>3</v>
@@ -3720,7 +3717,7 @@
       </c>
       <c r="G4" s="45" t="str">
         <f t="shared" si="0"/>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'hqTuan') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('hqTuan' , N'Hồ Quang Tuấn ' ,'cYG4QUrPG6QEpRDXwqUC66aFPqRSSSiFJTHI+VyigoLL6d7vxIfofXWyJVvb9L55t80WL3qqg4k+egxtfplRDg==', 3,1); END</v>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'hqTuan') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('hqTuan' , N'Hồ Quang Tuấn ' ,'Qpg33dheP8YId/V227rSwJBGsaFBiCiS+gSmH7v3UGe/srMWJLKxaXixYtGn8bVjDTAZUTLkUWd2gozVxGdL4Q==', 3,1); END</v>
       </c>
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
@@ -3746,7 +3743,7 @@
         <v>93</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="D5" s="26">
         <v>3</v>
@@ -3756,7 +3753,7 @@
       </c>
       <c r="G5" s="45" t="str">
         <f t="shared" si="0"/>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'bdKy') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('bdKy' , N'Bùi Đức Kỳ ' ,'JglrCxpRMDD1LFvthcjvA+ct7wnIK50Ukck7dpIU6RCWegfGusKRxzduTEHg9GyEK4WZE+zya31iXeqONI3FTQ==', 3,1); END</v>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'bdKy') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('bdKy' , N'Bùi Đức Kỳ ' ,'mrPKbRbcgI3Y7GyXhTJ1YGYtYmDPiyLMTBcVQr44EKNCqt7iQv6QJj8syq5r5E2Kz+E99I8XDod1fMb+QgOWQA==', 3,1); END</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
@@ -3782,7 +3779,7 @@
         <v>119</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3818,7 +3815,7 @@
         <v>482</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>496</v>
+        <v>548</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3828,7 +3825,7 @@
       </c>
       <c r="G7" s="45" t="str">
         <f t="shared" ref="G7:G11" si="1">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = '",A7,"') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('",A7,"' , N'",B7, " ' ", ",'", C7,  "', ", D7, ",",E7,"); END")</f>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'dtmLinh') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('dtmLinh' , N'Đặng Thị Mỹ Linh ' ,'2iT3AfhVRZ2arYq0QZdSyRCRttLP0L7KjI4UeoIGae85nBbasw5odwT/axqgXlo/1YzvdqWhg41+Cu+R+BP/5Q==', 2,1); END</v>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'dtmLinh') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('dtmLinh' , N'Đặng Thị Mỹ Linh ' ,'BeNMFjHskO3r+12WlQA19WT8do+abIFeOcpjNfZJb7dJ45BaLOuI3u0fuoYMEwnTNUX6JRmhkxGcR8I/8iLhQA==', 2,1); END</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
@@ -3854,7 +3851,7 @@
         <v>490</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>497</v>
+        <v>549</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -3864,7 +3861,7 @@
       </c>
       <c r="G8" s="45" t="str">
         <f t="shared" ref="G8" si="2">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = '",A8,"') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('",A8,"' , N'",B8, " ' ", ",'", C8,  "', ", D8, ",",E8,"); END")</f>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'dtNhung') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('dtNhung' , N'Dương Thị Nhung ' ,'+E1es4c/AnApwiOCkMgtmOfExpTTzYHxZiLFQ2WIbWsJGUSUXzIIAElQf7PWQBl+abXJ8D1IXhQKywJeaF5ebg==', 2,1); END</v>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'dtNhung') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('dtNhung' , N'Dương Thị Nhung ' ,'P2tpNrpjnDjmn09SUfEYS+B7guWs2dYTDqEk2EwKgubblvNXSsFTshkdPR1ooop1EZl6q/qazCZR7pTjDmIgSw==', 2,1); END</v>
       </c>
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
@@ -3890,7 +3887,7 @@
         <v>484</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3900,7 +3897,7 @@
       </c>
       <c r="G9" s="45" t="str">
         <f t="shared" si="1"/>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'tvTrung') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('tvTrung' , N'Trần Văn Trung ' ,'TXukIr69sD/acAhanFVTZh44HrSibO9jOUb9LIWt0RrGJe0pfHGBSLzzBdCBWiQcfDQ9GAcFCa5g5tcVA3wBjg==', 2,1); END</v>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'tvTrung') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('tvTrung' , N'Trần Văn Trung ' ,'BQ+sFebCIVZkcxHJ3Yf+KgfHov0d1LAkuffI043niSoS8Q+vR5uEfcF/TUSPONsVOUWVx/Gowz+7nVmdkC6xiw==', 2,1); END</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
@@ -3926,7 +3923,7 @@
         <v>486</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>499</v>
+        <v>551</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -3936,7 +3933,7 @@
       </c>
       <c r="G10" s="45" t="str">
         <f t="shared" ref="G10" si="3">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = '",A10,"') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('",A10,"' , N'",B10, " ' ", ",'", C10,  "', ", D10, ",",E10,"); END")</f>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'ndNguyen') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('ndNguyen' , N'Nguyễn Đăng Nguyên ' ,'73rhkewtQk97o09eOYHuXreXfWymiupSie6Ts2JIzdNgJRxdxHA4bASomRRHetOjzH7AZPhWrIFMVoK3ePdZ1g==', 2,1); END</v>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'ndNguyen') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('ndNguyen' , N'Nguyễn Đăng Nguyên ' ,'79smKIES14OHozxHO7CdtyeYMIBz7tX/C+7Zz0osYsz/WmGoUg9vriHKaBPDyIr6dywcVTwUI+Ub/D5ut/i+GQ==', 2,1); END</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
@@ -3962,7 +3959,7 @@
         <v>488</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3972,7 +3969,7 @@
       </c>
       <c r="G11" s="45" t="str">
         <f t="shared" si="1"/>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'btaDuong') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('btaDuong' , N'Bùi Thị Ánh Dương ' ,'9ITEEAbeXcDswf8OlLPL6I53V7ewiKlsWtH/wkBx0im77qfzE1thi49YkBhdZVWTNbxtkdfy584zqZVf6va5FA==', 1,1); END</v>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'btaDuong') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('btaDuong' , N'Bùi Thị Ánh Dương ' ,'YU8M7uEnGPjxcgFRhsIYY0zmZ2R27HhKSOPhctSc1Xo6DN7uCucjctayrOFEychlsVjWevlpywZAubG41J8Wyw==', 1,1); END</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
@@ -4049,7 +4046,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D2" s="26">
         <v>5</v>
@@ -4079,13 +4076,13 @@
     </row>
     <row r="3" spans="1:22" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D3" s="26">
         <v>4</v>
@@ -4115,13 +4112,13 @@
     </row>
     <row r="4" spans="1:22" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D4" s="26">
         <v>3</v>
@@ -4151,13 +4148,13 @@
     </row>
     <row r="5" spans="1:22" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D5" s="26">
         <v>2</v>
@@ -4187,13 +4184,13 @@
     </row>
     <row r="6" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -4356,7 +4353,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>101</v>
@@ -4364,58 +4361,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B2" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B3" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B5" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B6" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B8" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4423,55 +4420,55 @@
         <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B10" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B11" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B12" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B13" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B14" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B15" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -4499,10 +4496,10 @@
         <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D1" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -6237,13 +6234,35 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F49:W49"/>
-    <mergeCell ref="F43:W43"/>
-    <mergeCell ref="F44:W44"/>
-    <mergeCell ref="F45:W45"/>
-    <mergeCell ref="F46:W46"/>
-    <mergeCell ref="F47:W47"/>
-    <mergeCell ref="F48:W48"/>
+    <mergeCell ref="F2:W2"/>
+    <mergeCell ref="F3:W3"/>
+    <mergeCell ref="F4:W4"/>
+    <mergeCell ref="F5:W5"/>
+    <mergeCell ref="F6:W6"/>
+    <mergeCell ref="F18:W18"/>
+    <mergeCell ref="F7:W7"/>
+    <mergeCell ref="F8:W8"/>
+    <mergeCell ref="F9:W9"/>
+    <mergeCell ref="F10:W10"/>
+    <mergeCell ref="F11:W11"/>
+    <mergeCell ref="F12:W12"/>
+    <mergeCell ref="F13:W13"/>
+    <mergeCell ref="F14:W14"/>
+    <mergeCell ref="F15:W15"/>
+    <mergeCell ref="F16:W16"/>
+    <mergeCell ref="F17:W17"/>
+    <mergeCell ref="F30:W30"/>
+    <mergeCell ref="F19:W19"/>
+    <mergeCell ref="F20:W20"/>
+    <mergeCell ref="F21:W21"/>
+    <mergeCell ref="F22:W22"/>
+    <mergeCell ref="F23:W23"/>
+    <mergeCell ref="F24:W24"/>
+    <mergeCell ref="F25:W25"/>
+    <mergeCell ref="F26:W26"/>
+    <mergeCell ref="F27:W27"/>
+    <mergeCell ref="F28:W28"/>
+    <mergeCell ref="F29:W29"/>
     <mergeCell ref="F42:W42"/>
     <mergeCell ref="F31:W31"/>
     <mergeCell ref="F32:W32"/>
@@ -6256,35 +6275,13 @@
     <mergeCell ref="F39:W39"/>
     <mergeCell ref="F40:W40"/>
     <mergeCell ref="F41:W41"/>
-    <mergeCell ref="F30:W30"/>
-    <mergeCell ref="F19:W19"/>
-    <mergeCell ref="F20:W20"/>
-    <mergeCell ref="F21:W21"/>
-    <mergeCell ref="F22:W22"/>
-    <mergeCell ref="F23:W23"/>
-    <mergeCell ref="F24:W24"/>
-    <mergeCell ref="F25:W25"/>
-    <mergeCell ref="F26:W26"/>
-    <mergeCell ref="F27:W27"/>
-    <mergeCell ref="F28:W28"/>
-    <mergeCell ref="F29:W29"/>
-    <mergeCell ref="F18:W18"/>
-    <mergeCell ref="F7:W7"/>
-    <mergeCell ref="F8:W8"/>
-    <mergeCell ref="F9:W9"/>
-    <mergeCell ref="F10:W10"/>
-    <mergeCell ref="F11:W11"/>
-    <mergeCell ref="F12:W12"/>
-    <mergeCell ref="F13:W13"/>
-    <mergeCell ref="F14:W14"/>
-    <mergeCell ref="F15:W15"/>
-    <mergeCell ref="F16:W16"/>
-    <mergeCell ref="F17:W17"/>
-    <mergeCell ref="F2:W2"/>
-    <mergeCell ref="F3:W3"/>
-    <mergeCell ref="F4:W4"/>
-    <mergeCell ref="F5:W5"/>
-    <mergeCell ref="F6:W6"/>
+    <mergeCell ref="F49:W49"/>
+    <mergeCell ref="F43:W43"/>
+    <mergeCell ref="F44:W44"/>
+    <mergeCell ref="F45:W45"/>
+    <mergeCell ref="F46:W46"/>
+    <mergeCell ref="F47:W47"/>
+    <mergeCell ref="F48:W48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8804,7 +8801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE37355-416D-442C-B59D-AE8761DFDD82}">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -8832,46 +8829,46 @@
         <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>88</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9358,7 +9355,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B11" s="39">
         <v>1</v>
@@ -9405,7 +9402,7 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B12" s="28">
         <v>0</v>
@@ -9450,7 +9447,7 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B13" s="28">
         <v>0</v>
@@ -9497,7 +9494,7 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B14" s="28">
         <v>0</v>
@@ -9542,7 +9539,7 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -9563,7 +9560,7 @@
     </row>
     <row r="16" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B16" s="43">
         <f>B15+B14*2+B13*2^2+B12*2^3+B11*2^4</f>
@@ -9697,7 +9694,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B19" s="39">
         <v>0</v>
@@ -9744,7 +9741,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B20" s="28">
         <v>0</v>
@@ -9789,7 +9786,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B21" s="28">
         <v>0</v>
@@ -9836,7 +9833,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B22" s="28">
         <v>0</v>
@@ -9881,7 +9878,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -9902,7 +9899,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B24" s="43">
         <f>B23+B22*2+B21*2^2+B20*2^3+B19*2^4</f>
@@ -10036,7 +10033,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B27" s="39">
         <v>1</v>
@@ -10083,7 +10080,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B28" s="28">
         <v>1</v>
@@ -10128,7 +10125,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B29" s="28">
         <v>1</v>
@@ -10175,7 +10172,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B30" s="28">
         <v>0</v>
@@ -10220,7 +10217,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -10241,7 +10238,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="35" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B32" s="43">
         <f>B31+B30*2+B29*2^2+B28*2^3+B27*2^4</f>
@@ -10364,7 +10361,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B35" s="39">
         <v>1</v>
@@ -10411,7 +10408,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B36" s="28">
         <v>1</v>
@@ -10456,7 +10453,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B37" s="28">
         <v>1</v>
@@ -10503,7 +10500,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B38" s="28">
         <v>1</v>
@@ -10548,7 +10545,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -10569,7 +10566,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B40" s="43">
         <f>B39+B38*2+B37*2^2+B36*2^3+B35*2^4</f>
@@ -10692,7 +10689,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B43" s="39">
         <v>1</v>
@@ -10739,7 +10736,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B44" s="28">
         <v>1</v>
@@ -10784,7 +10781,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B45" s="28">
         <v>1</v>
@@ -10831,7 +10828,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B46" s="44">
         <v>1</v>
@@ -10876,7 +10873,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
@@ -10897,7 +10894,7 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B48" s="43">
         <f>B47+B46*2+B45*2^2+B44*2^3+B43*2^4</f>
@@ -11041,10 +11038,10 @@
     </row>
     <row r="3" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="C3" s="21">
         <v>83.3</v>
@@ -11910,6 +11907,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H2:T2"/>
+    <mergeCell ref="H4:T4"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="H18:T18"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="H20:T20"/>
     <mergeCell ref="H25:T25"/>
     <mergeCell ref="H5:T5"/>
     <mergeCell ref="H6:T6"/>
@@ -11924,16 +11931,6 @@
     <mergeCell ref="H12:T12"/>
     <mergeCell ref="H24:T24"/>
     <mergeCell ref="H14:T14"/>
-    <mergeCell ref="H2:T2"/>
-    <mergeCell ref="H4:T4"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="H20:T20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnquynh-laptop\source\repos\ICMSsolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9983F70-4632-4DE8-B4B2-DF8FA9DAD5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB61819-F9BB-4F2D-8CAE-F22197EF09DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="748" activeTab="9" xr2:uid="{919F9413-3E8B-4FC3-9CC5-F2E101C40464}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="748" activeTab="5" xr2:uid="{919F9413-3E8B-4FC3-9CC5-F2E101C40464}"/>
   </bookViews>
   <sheets>
     <sheet name="City" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,11 @@
     <sheet name="User" sheetId="12" r:id="rId10"/>
     <sheet name="UserDefault" sheetId="20" r:id="rId11"/>
     <sheet name="PermissionFunc" sheetId="21" r:id="rId12"/>
-    <sheet name="RolePermission" sheetId="22" r:id="rId13"/>
-    <sheet name="Customer" sheetId="13" r:id="rId14"/>
-    <sheet name="Machine" sheetId="15" r:id="rId15"/>
-    <sheet name="Sensor" sheetId="16" r:id="rId16"/>
-    <sheet name="Certificate" sheetId="18" r:id="rId17"/>
-    <sheet name="CalibData" sheetId="17" r:id="rId18"/>
+    <sheet name="Customer" sheetId="13" r:id="rId13"/>
+    <sheet name="Machine" sheetId="15" r:id="rId14"/>
+    <sheet name="Sensor" sheetId="16" r:id="rId15"/>
+    <sheet name="Certificate" sheetId="18" r:id="rId16"/>
+    <sheet name="CalibData" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="552">
   <si>
     <t>An Giang</t>
   </si>
@@ -1692,9 +1691,6 @@
   </si>
   <si>
     <t>Loại đầu dò</t>
-  </si>
-  <si>
-    <t>PermissionFuncId</t>
   </si>
   <si>
     <t>Permission</t>
@@ -3598,9 +3594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E163219-7505-435D-893C-049CC5135536}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3671,7 +3667,7 @@
         <v>92</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D3" s="26">
         <v>4</v>
@@ -3707,7 +3703,7 @@
         <v>91</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D4" s="26">
         <v>3</v>
@@ -3743,7 +3739,7 @@
         <v>93</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D5" s="26">
         <v>3</v>
@@ -3815,7 +3811,7 @@
         <v>482</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3851,7 +3847,7 @@
         <v>490</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -3887,7 +3883,7 @@
         <v>484</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3923,7 +3919,7 @@
         <v>486</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -3959,7 +3955,7 @@
         <v>488</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4478,36 +4474,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E7BF16-DBF4-444F-81E6-F2FB48FC2F6B}">
-  <dimension ref="B1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2640C8-9A74-45B1-90FD-1832E1F5DC3C}">
   <dimension ref="A1:W545"/>
   <sheetViews>
@@ -6287,7 +6253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FF4C8B-CB6E-4BC6-8C73-CA20681E2A27}">
   <dimension ref="A1:W5"/>
   <sheetViews>
@@ -6489,7 +6455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBB7903-0DF5-443B-A373-721E477368B3}">
   <dimension ref="A1:V5"/>
   <sheetViews>
@@ -6677,7 +6643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66025D19-6A72-4222-9D26-7C00155F1A8B}">
   <dimension ref="A1:AB14"/>
   <sheetViews>
@@ -6961,7 +6927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A97B93-E3C6-48E4-95D2-5FE9FD5F0FAD}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
@@ -8801,8 +8767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE37355-416D-442C-B59D-AE8761DFDD82}">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8832,13 +8798,13 @@
         <v>513</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>510</v>
@@ -9001,7 +8967,7 @@
       </c>
       <c r="L3" s="3">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" si="1"/>
@@ -9017,7 +8983,7 @@
       </c>
       <c r="Q3" s="45" t="str">
         <f t="shared" ref="Q3:Q6" si="2">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.Role where [Name] = N'",A3,"') BEGIN INSERT INTO dbo.Role  ([Name], [User], [Permission],[BackupDB], [RestoreDB],[RadQuantity],[DoseQuantity],[Unit],[TM],[Certificate],[Customer],[City],[MachineName],[MachineType],[SensorType]) VALUES (N'",A3,"', ",B3,", ",C3,", ",D3,", ",E3,", ",F3,", ",G3,", ",H3,", ",I3,", ",J3,", ",K3,", ",L3,", ",M3,", ",N3,", ",O3,"); END")</f>
-        <v>if not exists (SELECT * FROM  dbo.Role where [Name] = N'Technical') BEGIN INSERT INTO dbo.Role  ([Name], [User], [Permission],[BackupDB], [RestoreDB],[RadQuantity],[DoseQuantity],[Unit],[TM],[Certificate],[Customer],[City],[MachineName],[MachineType],[SensorType]) VALUES (N'Technical', 0, 0, 0, 0, 16, 16, 16, 28, 31, 28, 16, 30, 28, 28); END</v>
+        <v>if not exists (SELECT * FROM  dbo.Role where [Name] = N'Technical') BEGIN INSERT INTO dbo.Role  ([Name], [User], [Permission],[BackupDB], [RestoreDB],[RadQuantity],[DoseQuantity],[Unit],[TM],[Certificate],[Customer],[City],[MachineName],[MachineType],[SensorType]) VALUES (N'Technical', 0, 0, 0, 0, 16, 16, 16, 28, 31, 28, 28, 30, 28, 28); END</v>
       </c>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
@@ -9355,7 +9321,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B11" s="39">
         <v>1</v>
@@ -9402,7 +9368,7 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B12" s="28">
         <v>0</v>
@@ -9447,7 +9413,7 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B13" s="28">
         <v>0</v>
@@ -9494,7 +9460,7 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B14" s="28">
         <v>0</v>
@@ -9539,7 +9505,7 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -9560,7 +9526,7 @@
     </row>
     <row r="16" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B16" s="43">
         <f>B15+B14*2+B13*2^2+B12*2^3+B11*2^4</f>
@@ -9694,7 +9660,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B19" s="39">
         <v>0</v>
@@ -9741,7 +9707,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B20" s="28">
         <v>0</v>
@@ -9772,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="28">
         <v>1</v>
@@ -9786,7 +9752,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B21" s="28">
         <v>0</v>
@@ -9819,7 +9785,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="28">
         <v>1</v>
@@ -9833,7 +9799,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B22" s="28">
         <v>0</v>
@@ -9878,7 +9844,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -9899,7 +9865,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B24" s="43">
         <f>B23+B22*2+B21*2^2+B20*2^3+B19*2^4</f>
@@ -9943,7 +9909,7 @@
       </c>
       <c r="L24" s="43">
         <f t="shared" ref="L24" si="28">L23+L22*2+L21*2^2+L20*2^3+L19*2^4</f>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M24" s="43">
         <f t="shared" ref="M24" si="29">M23+M22*2+M21*2^2+M20*2^3+M19*2^4</f>
@@ -10033,7 +9999,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B27" s="39">
         <v>1</v>
@@ -10080,7 +10046,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B28" s="28">
         <v>1</v>
@@ -10125,7 +10091,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B29" s="28">
         <v>1</v>
@@ -10172,7 +10138,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B30" s="28">
         <v>0</v>
@@ -10217,7 +10183,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -10238,7 +10204,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B32" s="43">
         <f>B31+B30*2+B29*2^2+B28*2^3+B27*2^4</f>
@@ -10361,7 +10327,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B35" s="39">
         <v>1</v>
@@ -10408,7 +10374,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B36" s="28">
         <v>1</v>
@@ -10453,7 +10419,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B37" s="28">
         <v>1</v>
@@ -10500,7 +10466,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B38" s="28">
         <v>1</v>
@@ -10545,7 +10511,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -10566,7 +10532,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B40" s="43">
         <f>B39+B38*2+B37*2^2+B36*2^3+B35*2^4</f>
@@ -10689,7 +10655,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B43" s="39">
         <v>1</v>
@@ -10736,7 +10702,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B44" s="28">
         <v>1</v>
@@ -10781,7 +10747,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B45" s="28">
         <v>1</v>
@@ -10828,7 +10794,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B46" s="44">
         <v>1</v>
@@ -10873,7 +10839,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
@@ -10894,7 +10860,7 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B48" s="43">
         <f>B47+B46*2+B45*2^2+B44*2^3+B43*2^4</f>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnquynh-laptop\source\repos\ICMSsolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB61819-F9BB-4F2D-8CAE-F22197EF09DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C0D4B1-591D-4EDE-AE49-67203B08AC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="748" activeTab="5" xr2:uid="{919F9413-3E8B-4FC3-9CC5-F2E101C40464}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="748" firstSheet="1" activeTab="9" xr2:uid="{919F9413-3E8B-4FC3-9CC5-F2E101C40464}"/>
   </bookViews>
   <sheets>
     <sheet name="City" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="559">
   <si>
     <t>An Giang</t>
   </si>
@@ -1742,6 +1742,27 @@
   </si>
   <si>
     <t>YU8M7uEnGPjxcgFRhsIYY0zmZ2R27HhKSOPhctSc1Xo6DN7uCucjctayrOFEychlsVjWevlpywZAubG41J8Wyw==</t>
+  </si>
+  <si>
+    <t>hqTuan2022</t>
+  </si>
+  <si>
+    <t>bdKy321</t>
+  </si>
+  <si>
+    <t>Linh123456</t>
+  </si>
+  <si>
+    <t>Nhung123456</t>
+  </si>
+  <si>
+    <t>Trung123456</t>
+  </si>
+  <si>
+    <t>Nguyen123456</t>
+  </si>
+  <si>
+    <t>Duong123456</t>
   </si>
 </sst>
 </file>
@@ -2101,6 +2122,71 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1449457</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5459023-5FE7-203A-5704-D468918BBA4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7462630"/>
+          <a:ext cx="3810000" cy="1316935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3592,17 +3678,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E163219-7505-435D-893C-049CC5135536}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3983,6 +4069,91 @@
       <c r="U11" s="45"/>
       <c r="V11" s="45"/>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>481</v>
+      </c>
+      <c r="B23" t="s">
+        <v>482</v>
+      </c>
+      <c r="C23" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>489</v>
+      </c>
+      <c r="B24" t="s">
+        <v>490</v>
+      </c>
+      <c r="C24" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>483</v>
+      </c>
+      <c r="B25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C25" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>485</v>
+      </c>
+      <c r="B26" t="s">
+        <v>486</v>
+      </c>
+      <c r="C26" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>487</v>
+      </c>
+      <c r="B27" t="s">
+        <v>488</v>
+      </c>
+      <c r="C27" t="s">
+        <v>558</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="G9:V9"/>
@@ -3998,6 +4169,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6200,11 +6372,37 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F2:W2"/>
-    <mergeCell ref="F3:W3"/>
-    <mergeCell ref="F4:W4"/>
-    <mergeCell ref="F5:W5"/>
-    <mergeCell ref="F6:W6"/>
+    <mergeCell ref="F49:W49"/>
+    <mergeCell ref="F43:W43"/>
+    <mergeCell ref="F44:W44"/>
+    <mergeCell ref="F45:W45"/>
+    <mergeCell ref="F46:W46"/>
+    <mergeCell ref="F47:W47"/>
+    <mergeCell ref="F48:W48"/>
+    <mergeCell ref="F42:W42"/>
+    <mergeCell ref="F31:W31"/>
+    <mergeCell ref="F32:W32"/>
+    <mergeCell ref="F33:W33"/>
+    <mergeCell ref="F34:W34"/>
+    <mergeCell ref="F35:W35"/>
+    <mergeCell ref="F36:W36"/>
+    <mergeCell ref="F37:W37"/>
+    <mergeCell ref="F38:W38"/>
+    <mergeCell ref="F39:W39"/>
+    <mergeCell ref="F40:W40"/>
+    <mergeCell ref="F41:W41"/>
+    <mergeCell ref="F30:W30"/>
+    <mergeCell ref="F19:W19"/>
+    <mergeCell ref="F20:W20"/>
+    <mergeCell ref="F21:W21"/>
+    <mergeCell ref="F22:W22"/>
+    <mergeCell ref="F23:W23"/>
+    <mergeCell ref="F24:W24"/>
+    <mergeCell ref="F25:W25"/>
+    <mergeCell ref="F26:W26"/>
+    <mergeCell ref="F27:W27"/>
+    <mergeCell ref="F28:W28"/>
+    <mergeCell ref="F29:W29"/>
     <mergeCell ref="F18:W18"/>
     <mergeCell ref="F7:W7"/>
     <mergeCell ref="F8:W8"/>
@@ -6217,37 +6415,11 @@
     <mergeCell ref="F15:W15"/>
     <mergeCell ref="F16:W16"/>
     <mergeCell ref="F17:W17"/>
-    <mergeCell ref="F30:W30"/>
-    <mergeCell ref="F19:W19"/>
-    <mergeCell ref="F20:W20"/>
-    <mergeCell ref="F21:W21"/>
-    <mergeCell ref="F22:W22"/>
-    <mergeCell ref="F23:W23"/>
-    <mergeCell ref="F24:W24"/>
-    <mergeCell ref="F25:W25"/>
-    <mergeCell ref="F26:W26"/>
-    <mergeCell ref="F27:W27"/>
-    <mergeCell ref="F28:W28"/>
-    <mergeCell ref="F29:W29"/>
-    <mergeCell ref="F42:W42"/>
-    <mergeCell ref="F31:W31"/>
-    <mergeCell ref="F32:W32"/>
-    <mergeCell ref="F33:W33"/>
-    <mergeCell ref="F34:W34"/>
-    <mergeCell ref="F35:W35"/>
-    <mergeCell ref="F36:W36"/>
-    <mergeCell ref="F37:W37"/>
-    <mergeCell ref="F38:W38"/>
-    <mergeCell ref="F39:W39"/>
-    <mergeCell ref="F40:W40"/>
-    <mergeCell ref="F41:W41"/>
-    <mergeCell ref="F49:W49"/>
-    <mergeCell ref="F43:W43"/>
-    <mergeCell ref="F44:W44"/>
-    <mergeCell ref="F45:W45"/>
-    <mergeCell ref="F46:W46"/>
-    <mergeCell ref="F47:W47"/>
-    <mergeCell ref="F48:W48"/>
+    <mergeCell ref="F2:W2"/>
+    <mergeCell ref="F3:W3"/>
+    <mergeCell ref="F4:W4"/>
+    <mergeCell ref="F5:W5"/>
+    <mergeCell ref="F6:W6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8767,7 +8939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE37355-416D-442C-B59D-AE8761DFDD82}">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2:AJ6"/>
     </sheetView>
   </sheetViews>
@@ -11873,16 +12045,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="H2:T2"/>
-    <mergeCell ref="H4:T4"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="H20:T20"/>
     <mergeCell ref="H25:T25"/>
     <mergeCell ref="H5:T5"/>
     <mergeCell ref="H6:T6"/>
@@ -11897,6 +12059,16 @@
     <mergeCell ref="H12:T12"/>
     <mergeCell ref="H24:T24"/>
     <mergeCell ref="H14:T14"/>
+    <mergeCell ref="H2:T2"/>
+    <mergeCell ref="H4:T4"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="H18:T18"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="H20:T20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnquynh-laptop\source\repos\ICMSsolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C0D4B1-591D-4EDE-AE49-67203B08AC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A77CE4-ED96-46D5-BA12-58105160C1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="748" firstSheet="1" activeTab="9" xr2:uid="{919F9413-3E8B-4FC3-9CC5-F2E101C40464}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="748" firstSheet="3" activeTab="8" xr2:uid="{919F9413-3E8B-4FC3-9CC5-F2E101C40464}"/>
   </bookViews>
   <sheets>
     <sheet name="City" sheetId="1" r:id="rId1"/>
@@ -3680,7 +3680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E163219-7505-435D-893C-049CC5135536}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
@@ -6372,13 +6372,35 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F49:W49"/>
-    <mergeCell ref="F43:W43"/>
-    <mergeCell ref="F44:W44"/>
-    <mergeCell ref="F45:W45"/>
-    <mergeCell ref="F46:W46"/>
-    <mergeCell ref="F47:W47"/>
-    <mergeCell ref="F48:W48"/>
+    <mergeCell ref="F2:W2"/>
+    <mergeCell ref="F3:W3"/>
+    <mergeCell ref="F4:W4"/>
+    <mergeCell ref="F5:W5"/>
+    <mergeCell ref="F6:W6"/>
+    <mergeCell ref="F18:W18"/>
+    <mergeCell ref="F7:W7"/>
+    <mergeCell ref="F8:W8"/>
+    <mergeCell ref="F9:W9"/>
+    <mergeCell ref="F10:W10"/>
+    <mergeCell ref="F11:W11"/>
+    <mergeCell ref="F12:W12"/>
+    <mergeCell ref="F13:W13"/>
+    <mergeCell ref="F14:W14"/>
+    <mergeCell ref="F15:W15"/>
+    <mergeCell ref="F16:W16"/>
+    <mergeCell ref="F17:W17"/>
+    <mergeCell ref="F30:W30"/>
+    <mergeCell ref="F19:W19"/>
+    <mergeCell ref="F20:W20"/>
+    <mergeCell ref="F21:W21"/>
+    <mergeCell ref="F22:W22"/>
+    <mergeCell ref="F23:W23"/>
+    <mergeCell ref="F24:W24"/>
+    <mergeCell ref="F25:W25"/>
+    <mergeCell ref="F26:W26"/>
+    <mergeCell ref="F27:W27"/>
+    <mergeCell ref="F28:W28"/>
+    <mergeCell ref="F29:W29"/>
     <mergeCell ref="F42:W42"/>
     <mergeCell ref="F31:W31"/>
     <mergeCell ref="F32:W32"/>
@@ -6391,35 +6413,13 @@
     <mergeCell ref="F39:W39"/>
     <mergeCell ref="F40:W40"/>
     <mergeCell ref="F41:W41"/>
-    <mergeCell ref="F30:W30"/>
-    <mergeCell ref="F19:W19"/>
-    <mergeCell ref="F20:W20"/>
-    <mergeCell ref="F21:W21"/>
-    <mergeCell ref="F22:W22"/>
-    <mergeCell ref="F23:W23"/>
-    <mergeCell ref="F24:W24"/>
-    <mergeCell ref="F25:W25"/>
-    <mergeCell ref="F26:W26"/>
-    <mergeCell ref="F27:W27"/>
-    <mergeCell ref="F28:W28"/>
-    <mergeCell ref="F29:W29"/>
-    <mergeCell ref="F18:W18"/>
-    <mergeCell ref="F7:W7"/>
-    <mergeCell ref="F8:W8"/>
-    <mergeCell ref="F9:W9"/>
-    <mergeCell ref="F10:W10"/>
-    <mergeCell ref="F11:W11"/>
-    <mergeCell ref="F12:W12"/>
-    <mergeCell ref="F13:W13"/>
-    <mergeCell ref="F14:W14"/>
-    <mergeCell ref="F15:W15"/>
-    <mergeCell ref="F16:W16"/>
-    <mergeCell ref="F17:W17"/>
-    <mergeCell ref="F2:W2"/>
-    <mergeCell ref="F3:W3"/>
-    <mergeCell ref="F4:W4"/>
-    <mergeCell ref="F5:W5"/>
-    <mergeCell ref="F6:W6"/>
+    <mergeCell ref="F49:W49"/>
+    <mergeCell ref="F43:W43"/>
+    <mergeCell ref="F44:W44"/>
+    <mergeCell ref="F45:W45"/>
+    <mergeCell ref="F46:W46"/>
+    <mergeCell ref="F47:W47"/>
+    <mergeCell ref="F48:W48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12045,6 +12045,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="H2:T2"/>
+    <mergeCell ref="H4:T4"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="H18:T18"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="H20:T20"/>
     <mergeCell ref="H25:T25"/>
     <mergeCell ref="H5:T5"/>
     <mergeCell ref="H6:T6"/>
@@ -12059,16 +12069,6 @@
     <mergeCell ref="H12:T12"/>
     <mergeCell ref="H24:T24"/>
     <mergeCell ref="H14:T14"/>
-    <mergeCell ref="H2:T2"/>
-    <mergeCell ref="H4:T4"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="H20:T20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12144,9 +12144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA6C645-D470-4D7F-8F8D-FAC5C578D580}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:V2"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnquynh-laptop\source\repos\ICMSsolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A77CE4-ED96-46D5-BA12-58105160C1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DADB85-A92D-42F4-A6C7-047C1337C38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="748" firstSheet="3" activeTab="8" xr2:uid="{919F9413-3E8B-4FC3-9CC5-F2E101C40464}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="748" firstSheet="7" activeTab="9" xr2:uid="{919F9413-3E8B-4FC3-9CC5-F2E101C40464}"/>
   </bookViews>
   <sheets>
     <sheet name="City" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="546">
   <si>
     <t>An Giang</t>
   </si>
@@ -1561,9 +1561,6 @@
     <t>Dương Thị Nhung</t>
   </si>
   <si>
-    <t>tMCtNNh0nlmHOpv06uidQd1FS0ckiRDKU09ytmppu0u0dqyZowqjgt8bqItNCwz3RuKNYJYDp5Klqka552nlNQ==</t>
-  </si>
-  <si>
     <t>Tia X ISO N100</t>
   </si>
   <si>
@@ -1594,21 +1591,6 @@
     <t>ViewerUser</t>
   </si>
   <si>
-    <t>WVgZZJlK4DiBSMOfTVUXTQy+IdL6U0848zWYE83qp6TvPgIRCfn/x9vjecqzP08HQcnMihHCdw8qujAORNx9Yg==</t>
-  </si>
-  <si>
-    <t>/b34hjwbowrYt0PYDxmySU/rHd4eTPO89ADlxxGFZDhryi/xcAe1VEB9PovL4o0evuMJKmqwj2hYQnmt2CqU0w==</t>
-  </si>
-  <si>
-    <t>dyIaSbysQgbWiaClXRFf4U26ArDaQUiNRtJpKZdzDAY9ok3w+pyOBa5hTkC7HsQL9qDt13e60i3byXf8iJznTg==</t>
-  </si>
-  <si>
-    <t>6E3C+VKtXBH4oiKZxnP1r5UrXmVIrgV0I/lgyCsVCvkYCJnwx5UXkx0i13ULd+cy2v7XYOV1yYSvvX0/UYEQAQ==</t>
-  </si>
-  <si>
-    <t>gh1L3AT7o0glM3DiTIjL+/aFhueNgQ0qMLW8+kCYpGmwTY9Lm7tEGZ3Kot6GnUhSlcHTEIXkZgwB8LzdpXIIRQ==</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
@@ -1720,30 +1702,6 @@
     <t>AccessCode</t>
   </si>
   <si>
-    <t>q+tmTNslobCit/b76f1S2oPDVW5BKYwsExTklgzqKap98+GPTuxZnTCtHfWQwCNfRmuAyicp09LvHolelYJhuw==</t>
-  </si>
-  <si>
-    <t>Qpg33dheP8YId/V227rSwJBGsaFBiCiS+gSmH7v3UGe/srMWJLKxaXixYtGn8bVjDTAZUTLkUWd2gozVxGdL4Q==</t>
-  </si>
-  <si>
-    <t>mrPKbRbcgI3Y7GyXhTJ1YGYtYmDPiyLMTBcVQr44EKNCqt7iQv6QJj8syq5r5E2Kz+E99I8XDod1fMb+QgOWQA==</t>
-  </si>
-  <si>
-    <t>BeNMFjHskO3r+12WlQA19WT8do+abIFeOcpjNfZJb7dJ45BaLOuI3u0fuoYMEwnTNUX6JRmhkxGcR8I/8iLhQA==</t>
-  </si>
-  <si>
-    <t>P2tpNrpjnDjmn09SUfEYS+B7guWs2dYTDqEk2EwKgubblvNXSsFTshkdPR1ooop1EZl6q/qazCZR7pTjDmIgSw==</t>
-  </si>
-  <si>
-    <t>BQ+sFebCIVZkcxHJ3Yf+KgfHov0d1LAkuffI043niSoS8Q+vR5uEfcF/TUSPONsVOUWVx/Gowz+7nVmdkC6xiw==</t>
-  </si>
-  <si>
-    <t>79smKIES14OHozxHO7CdtyeYMIBz7tX/C+7Zz0osYsz/WmGoUg9vriHKaBPDyIr6dywcVTwUI+Ub/D5ut/i+GQ==</t>
-  </si>
-  <si>
-    <t>YU8M7uEnGPjxcgFRhsIYY0zmZ2R27HhKSOPhctSc1Xo6DN7uCucjctayrOFEychlsVjWevlpywZAubG41J8Wyw==</t>
-  </si>
-  <si>
     <t>hqTuan2022</t>
   </si>
   <si>
@@ -1763,6 +1721,9 @@
   </si>
   <si>
     <t>Duong123456</t>
+  </si>
+  <si>
+    <t>PJkJr+wlNU1VHa4hWQuybjjVPyFzuNPcPu5MBH56scHri4UQPjvnumE7MbtcnDYhTcnxSkL9ei/bhIVrylxEwg==</t>
   </si>
 </sst>
 </file>
@@ -2000,7 +1961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2036,9 +1997,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2051,30 +2009,19 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2097,9 +2044,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2788,7 +2732,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C17" s="3">
         <v>262</v>
@@ -2806,7 +2750,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C18" s="3">
         <v>261</v>
@@ -2950,7 +2894,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C26" s="3">
         <v>24</v>
@@ -3544,7 +3488,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C59" s="3">
         <v>234</v>
@@ -3680,9 +3624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E163219-7505-435D-893C-049CC5135536}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3709,149 +3653,149 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>502</v>
-      </c>
-      <c r="D2" s="26">
+      <c r="C2" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="E2" s="26">
-        <v>1</v>
-      </c>
-      <c r="G2" s="45" t="str">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="38" t="str">
         <f t="shared" ref="G2:G5" si="0">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = '",A2,"') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('",A2,"' , N'",B2, " ' ", ",'", C2,  "', ", D2, ",",E2,"); END")</f>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'Admin') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('Admin' , N'Admin ' ,'WVgZZJlK4DiBSMOfTVUXTQy+IdL6U0848zWYE83qp6TvPgIRCfn/x9vjecqzP08HQcnMihHCdw8qujAORNx9Yg==', 5,1); END</v>
-      </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-    </row>
-    <row r="3" spans="1:22" s="26" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'Admin') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('Admin' , N'Admin ' ,'PJkJr+wlNU1VHa4hWQuybjjVPyFzuNPcPu5MBH56scHri4UQPjvnumE7MbtcnDYhTcnxSkL9ei/bhIVrylxEwg==', 5,1); END</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+    </row>
+    <row r="3" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>477</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>544</v>
-      </c>
-      <c r="D3" s="26">
+      <c r="C3" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" s="26">
-        <v>1</v>
-      </c>
-      <c r="G3" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'lnThiem') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('lnThiem' , N'Lê Ngọc Thiệm ' ,'q+tmTNslobCit/b76f1S2oPDVW5BKYwsExTklgzqKap98+GPTuxZnTCtHfWQwCNfRmuAyicp09LvHolelYJhuw==', 4,1); END</v>
-      </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-    </row>
-    <row r="4" spans="1:22" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'lnThiem') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('lnThiem' , N'Lê Ngọc Thiệm ' ,'PJkJr+wlNU1VHa4hWQuybjjVPyFzuNPcPu5MBH56scHri4UQPjvnumE7MbtcnDYhTcnxSkL9ei/bhIVrylxEwg==', 4,1); END</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+    </row>
+    <row r="4" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>478</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" s="26">
-        <v>1</v>
-      </c>
-      <c r="G4" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'hqTuan') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('hqTuan' , N'Hồ Quang Tuấn ' ,'Qpg33dheP8YId/V227rSwJBGsaFBiCiS+gSmH7v3UGe/srMWJLKxaXixYtGn8bVjDTAZUTLkUWd2gozVxGdL4Q==', 3,1); END</v>
-      </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-    </row>
-    <row r="5" spans="1:22" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'hqTuan') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('hqTuan' , N'Hồ Quang Tuấn ' ,'PJkJr+wlNU1VHa4hWQuybjjVPyFzuNPcPu5MBH56scHri4UQPjvnumE7MbtcnDYhTcnxSkL9ei/bhIVrylxEwg==', 3,1); END</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+    </row>
+    <row r="5" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>479</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>546</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="C5" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="26">
-        <v>1</v>
-      </c>
-      <c r="G5" s="45" t="str">
-        <f t="shared" si="0"/>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'bdKy') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('bdKy' , N'Bùi Đức Kỳ ' ,'mrPKbRbcgI3Y7GyXhTJ1YGYtYmDPiyLMTBcVQr44EKNCqt7iQv6QJj8syq5r5E2Kz+E99I8XDod1fMb+QgOWQA==', 3,1); END</v>
-      </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'bdKy') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('bdKy' , N'Bùi Đức Kỳ ' ,'PJkJr+wlNU1VHa4hWQuybjjVPyFzuNPcPu5MBH56scHri4UQPjvnumE7MbtcnDYhTcnxSkL9ei/bhIVrylxEwg==', 3,1); END</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
     </row>
     <row r="6" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3861,7 +3805,7 @@
         <v>119</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3869,25 +3813,25 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="G6" s="45" t="str">
+      <c r="G6" s="38" t="str">
         <f>_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = '",A6,"') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('",A6,"' , N'",B6, " ' ", ",'", C6,  "', ", D6, ",",E6,"); END")</f>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'nnQuynh') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('nnQuynh' , N'Nguyễn Ngọc Quỳnh ' ,'tMCtNNh0nlmHOpv06uidQd1FS0ckiRDKU09ytmppu0u0dqyZowqjgt8bqItNCwz3RuKNYJYDp5Klqka552nlNQ==', 2,1); END</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'nnQuynh') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('nnQuynh' , N'Nguyễn Ngọc Quỳnh ' ,'PJkJr+wlNU1VHa4hWQuybjjVPyFzuNPcPu5MBH56scHri4UQPjvnumE7MbtcnDYhTcnxSkL9ei/bhIVrylxEwg==', 2,1); END</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
     </row>
     <row r="7" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3897,7 +3841,7 @@
         <v>482</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3905,25 +3849,25 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="45" t="str">
+      <c r="G7" s="38" t="str">
         <f t="shared" ref="G7:G11" si="1">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = '",A7,"') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('",A7,"' , N'",B7, " ' ", ",'", C7,  "', ", D7, ",",E7,"); END")</f>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'dtmLinh') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('dtmLinh' , N'Đặng Thị Mỹ Linh ' ,'BeNMFjHskO3r+12WlQA19WT8do+abIFeOcpjNfZJb7dJ45BaLOuI3u0fuoYMEwnTNUX6JRmhkxGcR8I/8iLhQA==', 2,1); END</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'dtmLinh') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('dtmLinh' , N'Đặng Thị Mỹ Linh ' ,'PJkJr+wlNU1VHa4hWQuybjjVPyFzuNPcPu5MBH56scHri4UQPjvnumE7MbtcnDYhTcnxSkL9ei/bhIVrylxEwg==', 2,1); END</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
     </row>
     <row r="8" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3933,7 +3877,7 @@
         <v>490</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -3941,25 +3885,25 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="45" t="str">
+      <c r="G8" s="38" t="str">
         <f t="shared" ref="G8" si="2">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = '",A8,"') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('",A8,"' , N'",B8, " ' ", ",'", C8,  "', ", D8, ",",E8,"); END")</f>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'dtNhung') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('dtNhung' , N'Dương Thị Nhung ' ,'P2tpNrpjnDjmn09SUfEYS+B7guWs2dYTDqEk2EwKgubblvNXSsFTshkdPR1ooop1EZl6q/qazCZR7pTjDmIgSw==', 2,1); END</v>
-      </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'dtNhung') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('dtNhung' , N'Dương Thị Nhung ' ,'PJkJr+wlNU1VHa4hWQuybjjVPyFzuNPcPu5MBH56scHri4UQPjvnumE7MbtcnDYhTcnxSkL9ei/bhIVrylxEwg==', 2,1); END</v>
+      </c>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
     </row>
     <row r="9" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3969,7 +3913,7 @@
         <v>484</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3977,25 +3921,25 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" s="45" t="str">
+      <c r="G9" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'tvTrung') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('tvTrung' , N'Trần Văn Trung ' ,'BQ+sFebCIVZkcxHJ3Yf+KgfHov0d1LAkuffI043niSoS8Q+vR5uEfcF/TUSPONsVOUWVx/Gowz+7nVmdkC6xiw==', 2,1); END</v>
-      </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'tvTrung') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('tvTrung' , N'Trần Văn Trung ' ,'PJkJr+wlNU1VHa4hWQuybjjVPyFzuNPcPu5MBH56scHri4UQPjvnumE7MbtcnDYhTcnxSkL9ei/bhIVrylxEwg==', 2,1); END</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
     </row>
     <row r="10" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -4005,7 +3949,7 @@
         <v>486</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -4013,25 +3957,25 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="G10" s="45" t="str">
+      <c r="G10" s="38" t="str">
         <f t="shared" ref="G10" si="3">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = '",A10,"') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('",A10,"' , N'",B10, " ' ", ",'", C10,  "', ", D10, ",",E10,"); END")</f>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'ndNguyen') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('ndNguyen' , N'Nguyễn Đăng Nguyên ' ,'79smKIES14OHozxHO7CdtyeYMIBz7tX/C+7Zz0osYsz/WmGoUg9vriHKaBPDyIr6dywcVTwUI+Ub/D5ut/i+GQ==', 2,1); END</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'ndNguyen') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('ndNguyen' , N'Nguyễn Đăng Nguyên ' ,'PJkJr+wlNU1VHa4hWQuybjjVPyFzuNPcPu5MBH56scHri4UQPjvnumE7MbtcnDYhTcnxSkL9ei/bhIVrylxEwg==', 2,1); END</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
     </row>
     <row r="11" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4041,7 +3985,7 @@
         <v>488</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4049,25 +3993,25 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="G11" s="45" t="str">
+      <c r="G11" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'btaDuong') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('btaDuong' , N'Bùi Thị Ánh Dương ' ,'YU8M7uEnGPjxcgFRhsIYY0zmZ2R27HhKSOPhctSc1Xo6DN7uCucjctayrOFEychlsVjWevlpywZAubG41J8Wyw==', 1,1); END</v>
-      </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'btaDuong') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('btaDuong' , N'Bùi Thị Ánh Dương ' ,'PJkJr+wlNU1VHa4hWQuybjjVPyFzuNPcPu5MBH56scHri4UQPjvnumE7MbtcnDYhTcnxSkL9ei/bhIVrylxEwg==', 1,1); END</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -4077,7 +4021,7 @@
         <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4088,7 +4032,7 @@
         <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4107,7 +4051,7 @@
         <v>482</v>
       </c>
       <c r="C23" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4118,7 +4062,7 @@
         <v>490</v>
       </c>
       <c r="C24" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4129,7 +4073,7 @@
         <v>484</v>
       </c>
       <c r="C25" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4140,7 +4084,7 @@
         <v>486</v>
       </c>
       <c r="C26" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4151,7 +4095,7 @@
         <v>488</v>
       </c>
       <c r="C27" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -4179,7 +4123,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:V2"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4206,285 +4150,285 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>502</v>
-      </c>
-      <c r="D2" s="26">
+      <c r="C2" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="E2" s="26">
-        <v>1</v>
-      </c>
-      <c r="G2" s="45" t="str">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="38" t="str">
         <f t="shared" ref="G2" si="0">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = '",A2,"') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('",A2,"' , N'",B2, " ' ", ",'", C2,  "', ", D2, ",",E2,"); END")</f>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'Admin') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('Admin' , N'Admin ' ,'WVgZZJlK4DiBSMOfTVUXTQy+IdL6U0848zWYE83qp6TvPgIRCfn/x9vjecqzP08HQcnMihHCdw8qujAORNx9Yg==', 5,1); END</v>
-      </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-    </row>
-    <row r="3" spans="1:22" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'Admin') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('Admin' , N'Admin ' ,'PJkJr+wlNU1VHa4hWQuybjjVPyFzuNPcPu5MBH56scHri4UQPjvnumE7MbtcnDYhTcnxSkL9ei/bhIVrylxEwg==', 5,1); END</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+    </row>
+    <row r="3" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="38" t="str">
+        <f t="shared" ref="G3:G6" si="1">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = '",A3,"') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('",A3,"' , N'",B3, " ' ", ",'", C3,  "', ", D3, ",",E3,"); END")</f>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'QMUser') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('QMUser' , N'QMUser ' ,'PJkJr+wlNU1VHa4hWQuybjjVPyFzuNPcPu5MBH56scHri4UQPjvnumE7MbtcnDYhTcnxSkL9ei/bhIVrylxEwg==', 4,1); END</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+    </row>
+    <row r="4" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>498</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B4" t="s">
         <v>498</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>503</v>
-      </c>
-      <c r="D3" s="26">
-        <v>4</v>
-      </c>
-      <c r="E3" s="26">
-        <v>1</v>
-      </c>
-      <c r="G3" s="45" t="str">
-        <f t="shared" ref="G3:G6" si="1">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = '",A3,"') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('",A3,"' , N'",B3, " ' ", ",'", C3,  "', ", D3, ",",E3,"); END")</f>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'QMUser') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('QMUser' , N'QMUser ' ,'/b34hjwbowrYt0PYDxmySU/rHd4eTPO89ADlxxGFZDhryi/xcAe1VEB9PovL4o0evuMJKmqwj2hYQnmt2CqU0w==', 4,1); END</v>
-      </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-    </row>
-    <row r="4" spans="1:22" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="C4" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'TMUser') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('TMUser' , N'TMUser ' ,'PJkJr+wlNU1VHa4hWQuybjjVPyFzuNPcPu5MBH56scHri4UQPjvnumE7MbtcnDYhTcnxSkL9ei/bhIVrylxEwg==', 3,1); END</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+    </row>
+    <row r="5" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>499</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B5" t="s">
         <v>499</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D4" s="26">
-        <v>3</v>
-      </c>
-      <c r="E4" s="26">
-        <v>1</v>
-      </c>
-      <c r="G4" s="45" t="str">
+      <c r="C5" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'TMUser') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('TMUser' , N'TMUser ' ,'dyIaSbysQgbWiaClXRFf4U26ArDaQUiNRtJpKZdzDAY9ok3w+pyOBa5hTkC7HsQL9qDt13e60i3byXf8iJznTg==', 3,1); END</v>
-      </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-    </row>
-    <row r="5" spans="1:22" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'TechnicalUser') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('TechnicalUser' , N'TechnicalUser ' ,'PJkJr+wlNU1VHa4hWQuybjjVPyFzuNPcPu5MBH56scHri4UQPjvnumE7MbtcnDYhTcnxSkL9ei/bhIVrylxEwg==', 2,1); END</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+    </row>
+    <row r="6" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>500</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B6" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="D5" s="26">
-        <v>2</v>
-      </c>
-      <c r="E5" s="26">
-        <v>1</v>
-      </c>
-      <c r="G5" s="45" t="str">
+      <c r="C6" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'TechnicalUser') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('TechnicalUser' , N'TechnicalUser ' ,'6E3C+VKtXBH4oiKZxnP1r5UrXmVIrgV0I/lgyCsVCvkYCJnwx5UXkx0i13ULd+cy2v7XYOV1yYSvvX0/UYEQAQ==', 2,1); END</v>
-      </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-    </row>
-    <row r="6" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="D6" s="26">
-        <v>1</v>
-      </c>
-      <c r="E6" s="26">
-        <v>1</v>
-      </c>
-      <c r="G6" s="45" t="str">
-        <f t="shared" si="1"/>
-        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'ViewerUser') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('ViewerUser' , N'ViewerUser ' ,'gh1L3AT7o0glM3DiTIjL+/aFhueNgQ0qMLW8+kCYpGmwTY9Lm7tEGZ3Kot6GnUhSlcHTEIXkZgwB8LzdpXIIRQ==', 1,1); END</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
+        <v>if not exists (SELECT * FROM  dbo.[User] WHERE [LoginName] = 'ViewerUser') BEGIN INSERT INTO dbo.[User]  ([LoginName],[FullName],[Password],[RoleId],[IsActive]) VALUES ('ViewerUser' , N'ViewerUser ' ,'PJkJr+wlNU1VHa4hWQuybjjVPyFzuNPcPu5MBH56scHri4UQPjvnumE7MbtcnDYhTcnxSkL9ei/bhIVrylxEwg==', 1,1); END</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
     </row>
     <row r="7" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
     </row>
     <row r="8" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
     </row>
     <row r="9" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
     </row>
     <row r="10" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
     </row>
     <row r="11" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4521,7 +4465,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>101</v>
@@ -4529,58 +4473,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B4" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B5" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B8" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4588,55 +4532,55 @@
         <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B10" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B11" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B12" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B13" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B14" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B15" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -4686,27 +4630,27 @@
       <c r="D2" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="45" t="str">
+      <c r="F2" s="38" t="str">
         <f>_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'",B2,"') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'",A2, " ' ", ",N'",B2,  "', ",C2, ", N'",D2,"'); END")</f>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Sở Khoa học và Công nghệ Sóc Trăng') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'SKHCNST ' ,N'Sở Khoa học và Công nghệ Sóc Trăng', 52, N' 217 Trần Bình Trọng, Phường 2, TP Sóc Trăng, Tỉnh Sóc Trăng'); END</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -4721,27 +4665,27 @@
       <c r="D3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="45" t="str">
+      <c r="F3" s="38" t="str">
         <f t="shared" ref="F3:F49" si="0">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'",B3,"') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'",A3, " ' ", ",N'",B3,  "', ",C3, ", N'",D3,"'); END")</f>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Bệnh Viện Bãi Cháy - Quảng Ninh') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Bệnh viện bãi cháy ' ,N'Bệnh Viện Bãi Cháy - Quảng Ninh', 50, N' Giếng Đáy, Thành phố Hạ Long, Quảng Ninh'); END</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4756,27 +4700,27 @@
       <c r="D4" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="F4" s="45" t="str">
+      <c r="F4" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty TNHH Ratoc') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Ratoc ' ,N'Công ty TNHH Ratoc', 24, N'124 đường Phúc Diễn, Phường Phúc Diễn, Quận Bắc Từ Liêm, Thành phố Hà Nội.'); END</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
     </row>
     <row r="5" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -4791,27 +4735,27 @@
       <c r="D5" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F5" s="45" t="str">
+      <c r="F5" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty TNHH thương mại dịch vụ công nghệ AKTECH Việt NAm') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'AKTECH VN ' ,N'Công ty TNHH thương mại dịch vụ công nghệ AKTECH Việt NAm', 66, N'127 Nguyễn Phúc Nguyên, Phường 10, Quận 3, TP.HCM '); END</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
     </row>
     <row r="6" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -4826,27 +4770,27 @@
       <c r="D6" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="45" t="str">
+      <c r="F6" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Cục Hải Quan Thành Phố Hà Nội') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Hải quan HN ' ,N'Cục Hải Quan Thành Phố Hà Nội', 24, N'129 Nguyễn Phong Sắc, Dịch Vọng Hậu, quận Cầu Giấy, Hà Nội'); END</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
     </row>
     <row r="7" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -4861,27 +4805,27 @@
       <c r="D7" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="45" t="str">
+      <c r="F7" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty TNHH Emerson Process Management - Việt Nam') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'EMRSON ' ,N'Công ty TNHH Emerson Process Management - Việt Nam', 66, N'151 Nguyễn Đình Chiểu, Phường 6, Quận 3, Thành phố Hồ Chí Minh'); END</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
     </row>
     <row r="8" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -4896,27 +4840,27 @@
       <c r="D8" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="F8" s="45" t="str">
+      <c r="F8" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Trung tâm quan trắc phóng xạ và đánh giá tác động môi trường/ Viện khoa học và Kỹ thuật hạt nhân') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Nutech ' ,N'Trung tâm quan trắc phóng xạ và đánh giá tác động môi trường/ Viện khoa học và Kỹ thuật hạt nhân', 24, N'179 Hoàng Quốc việt, Cầu Giấy, Hà Nội'); END</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
     </row>
     <row r="9" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -4931,27 +4875,27 @@
       <c r="D9" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F9" s="45" t="str">
+      <c r="F9" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Bệnh Viện trường đại học y dược Cần Thơ') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Y Cần Thơ ' ,N'Bệnh Viện trường đại học y dược Cần Thơ', 13, N'179 Nguyễn Văn Cừ, P. An Khánh, TP. Cần Thơ'); END</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
     </row>
     <row r="10" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -4966,27 +4910,27 @@
       <c r="D10" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="45" t="str">
+      <c r="F10" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Trung tâm nghiên cứu triển khai công nghệ bức xạ') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'CNBX ' ,N'Trung tâm nghiên cứu triển khai công nghệ bức xạ', 54, N'202A, đường 11, phường Nghi Xuân, quận Thủ Đức, tp Hồ Chí Minh'); END</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
     </row>
     <row r="11" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -5001,27 +4945,27 @@
       <c r="D11" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="45" t="str">
+      <c r="F11" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty TNHH một thành viên lọc hóa dầu Bình Sơn') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Bình Sơn ' ,N'Công ty TNHH một thành viên lọc hóa dầu Bình Sơn', 49, N'208 Đại Lộ Hùng Vương, P. Trần Phú, TP. Quảng Ngãi, tỉnh Quảng Ngãi'); END</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
     </row>
     <row r="12" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -5036,27 +4980,27 @@
       <c r="D12" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="45" t="str">
+      <c r="F12" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Trung tâm thông tin ứng dụng tiến bộ khoa học và công nghệ Tây Ninh') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'TTTN ' ,N'Trung tâm thông tin ứng dụng tiến bộ khoa học và công nghệ Tây Ninh', 54, N'211 đường 30/4, KP3, Phường 2, Thành phố Tây Ninh, Tỉnh Tây Ninh'); END</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
     </row>
     <row r="13" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -5071,27 +5015,27 @@
       <c r="D13" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F13" s="45" t="str">
+      <c r="F13" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công Ty TNHH Thương Mại - Dịch Vụ Kỹ Thuật Việt') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Kỹ thuật Việt ' ,N'Công Ty TNHH Thương Mại - Dịch Vụ Kỹ Thuật Việt', 66, N'213 Khánh Hội, Phường 3, Quận 4, Thành phố Hồ Chí Minh'); END</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
     </row>
     <row r="14" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -5106,27 +5050,27 @@
       <c r="D14" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="45" t="str">
+      <c r="F14" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty cổ phần Emin Việt Nam - Chi nhánh miền nam') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Emin ' ,N'Công ty cổ phần Emin Việt Nam - Chi nhánh miền nam', 66, N'218 Cộng Hòa, Phường 12, Quận Tân Bình, TP Hồ Chí Minh'); END</v>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
     </row>
     <row r="15" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -5141,27 +5085,27 @@
       <c r="D15" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="45" t="str">
+      <c r="F15" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Trung tâm kỹ thuật tiêu chuẩn đo lường chất lượng Hải Phòng') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'TTKTTCĐLHP ' ,N'Trung tâm kỹ thuật tiêu chuẩn đo lường chất lượng Hải Phòng', 28, N'240 Văn Cao, phường Đằng Giang, quận Ngô Quyền, thành phố Hải Phòng'); END</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
     </row>
     <row r="16" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -5176,27 +5120,27 @@
       <c r="D16" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="45" t="str">
+      <c r="F16" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Trung tâm ứng dụng tiến bộ khoa học &amp; công nghệ Bình Dương') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Bình Dương TTUD ' ,N'Trung tâm ứng dụng tiến bộ khoa học &amp; công nghệ Bình Dương', 9, N'26 Huỳnh Văn Nghệ, Phú Lợi, Thủ Dầu Một, Bình Dương'); END</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
     </row>
     <row r="17" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -5211,27 +5155,27 @@
       <c r="D17" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="45" t="str">
+      <c r="F17" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Trung tâm Kỹ thuật Tiêu chuẩn Đo lường Chất lượng Vĩnh Long') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'TĐC VL ' ,N'Trung tâm Kỹ thuật Tiêu chuẩn Đo lường Chất lượng Vĩnh Long', 62, N'339A, Ấp Tân Xuân, Xã Tân Ngãi, TP Vĩnh Long , Tỉnh Vĩnh Long'); END</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
     </row>
     <row r="18" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
@@ -5246,27 +5190,27 @@
       <c r="D18" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="F18" s="45" t="str">
+      <c r="F18" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Trung tâm ứng dụng phát triển khoa học công nghệ và đo lường, chất lượng sản phẩm') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'TTUDLS ' ,N'Trung tâm ứng dụng phát triển khoa học công nghệ và đo lường, chất lượng sản phẩm', 38, N'428 đường Hùng Vương, Tp Lạng Sơn, Tỉnh Lạng Sơn'); END</v>
       </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
     </row>
     <row r="19" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -5281,27 +5225,27 @@
       <c r="D19" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="45" t="str">
+      <c r="F19" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Bệnh viện đa khoa quốc tế Vinmec') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Vinmec ' ,N'Bệnh viện đa khoa quốc tế Vinmec', 24, N'458 Minh Khai, Vĩnh Tuy, Hai Bà Trưng, Hà Nội'); END</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
     </row>
     <row r="20" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -5316,27 +5260,27 @@
       <c r="D20" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="F20" s="45" t="str">
+      <c r="F20" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Phòng khám đa khoa Tam Đức') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Tam Đức ' ,N'Phòng khám đa khoa Tam Đức', 19, N'528/15 Xa lộ Hà Nội, KP4, Phường Tân Hiệp, Tp. Biên Hòa, Đồng Nai'); END</v>
       </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
     </row>
     <row r="21" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -5351,27 +5295,27 @@
       <c r="D21" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F21" s="45" t="str">
+      <c r="F21" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty cổ phần giám định khử trùng Vinacontrol - Chi nhánh Hải Phòng') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Vinacontrol HP ' ,N'Công ty cổ phần giám định khử trùng Vinacontrol - Chi nhánh Hải Phòng', 28, N'546A Lê Thánh Tông, quận Hải An, Hải Phòng'); END</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
     </row>
     <row r="22" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -5386,27 +5330,27 @@
       <c r="D22" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F22" s="45" t="str">
+      <c r="F22" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Bệnh viện Ung bướu Nghệ An') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'bv Nghệ An ' ,N'Bệnh viện Ung bướu Nghệ An', 42, N'60 Tôn Thất Tùng, Hưng Dũng, Thành phố Vinh, Nghệ An '); END</v>
       </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
     </row>
     <row r="23" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -5421,27 +5365,27 @@
       <c r="D23" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F23" s="45" t="str">
+      <c r="F23" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Bệnh viện Bạch Mai') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'BV BM ' ,N'Bệnh viện Bạch Mai', 24, N'78 Giải Phóng, phường Phương Mai, quận Đống Đa, Hà Nội'); END</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
     </row>
     <row r="24" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
@@ -5456,27 +5400,27 @@
       <c r="D24" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F24" s="45" t="str">
+      <c r="F24" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Bệnh viện Quân y 175') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'NULL ' ,N'Bệnh viện Quân y 175', 66, N'786 Nguyễn Kiệm, Phường 3, Gò Vấp, Hồ Chí Minh'); END</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
     </row>
     <row r="25" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -5491,27 +5435,27 @@
       <c r="D25" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="45" t="str">
+      <c r="F25" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công an Thành phố Hà Nội') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'CATPHN ' ,N'Công an Thành phố Hà Nội', 24, N'87 Trần Hưng Đạo, Hoàn Kiếm, Hà Nội'); END</v>
       </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
     </row>
     <row r="26" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
@@ -5526,27 +5470,27 @@
       <c r="D26" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="F26" s="45" t="str">
+      <c r="F26" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty cổ phần FUJI CAC') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'FUJI CAC ' ,N'Công ty cổ phần FUJI CAC', 66, N'939A9 đường A, KCN Cát Lái, P. Thạnh Mỹ Lợi, Q.2, Tp. Hồ Chí Minh'); END</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
     </row>
     <row r="27" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
@@ -5561,27 +5505,27 @@
       <c r="D27" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="F27" s="45" t="str">
+      <c r="F27" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Trung tâm ứng dụng và chuyển giao công nghệ Gia Lai') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'TTUD Gia Lai ' ,N'Trung tâm ứng dụng và chuyển giao công nghệ Gia Lai', 21, N'98B Phạm Văn Đồng, TP Pleiku, Gia Lai'); END</v>
       </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
     </row>
     <row r="28" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
@@ -5596,27 +5540,27 @@
       <c r="D28" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="45" t="str">
+      <c r="F28" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Bệnh viện đa khoa tỉnh Hà Tĩnh') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'BVDKHT ' ,N'Bệnh viện đa khoa tỉnh Hà Tĩnh', 26, N'Đường Hải Thượng Lãn Ông, Bắc Hà, TP Hà Tĩnh, tỉnh Hà Tĩnh'); END</v>
       </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
     </row>
     <row r="29" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -5631,27 +5575,27 @@
       <c r="D29" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F29" s="45" t="str">
+      <c r="F29" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Bệnh viện Việt Nam - Thụy Điển Uông Bí') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Uông Bí ' ,N'Bệnh viện Việt Nam - Thụy Điển Uông Bí', 50, N'Đường Tuệ Tĩnh, Phường Thanh Sơn, Thành phố Uông Bí, Tỉnh Quảng Ninh'); END</v>
       </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
     </row>
     <row r="30" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
@@ -5666,27 +5610,27 @@
       <c r="D30" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F30" s="45" t="str">
+      <c r="F30" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Bệnh viện đa khoa tỉnh Ninh Thuận') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'BVĐKNT ' ,N'Bệnh viện đa khoa tỉnh Ninh Thuận', 44, N'guyễn Văn Cừ, Văn Hải, Phan Rang-Tháp Chàm, Ninh Thuận'); END</v>
       </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
     </row>
     <row r="31" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -5701,27 +5645,27 @@
       <c r="D31" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="45" t="str">
+      <c r="F31" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty cổ phần sản xuất ống thép dầu khí Việt Nam') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Ống thép dầu khí ' ,N'Công ty cổ phần sản xuất ống thép dầu khí Việt Nam', 59, N'KCN dịch vụ dầu khí Soài Rạp, Kiểng Phước, Gò Công Đông, Tiền Giang'); END</v>
       </c>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
     </row>
     <row r="32" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -5736,27 +5680,27 @@
       <c r="D32" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="F32" s="45" t="str">
+      <c r="F32" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty TNHH Haosheng Vina') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Haosheng vina ' ,N'Công ty TNHH Haosheng Vina', 2, N'KCN Mỹ Xuân A2, phường Mỹ Xuân, Thị xã Phú Mỹ, tỉnh Bà Rịa - Vũng Tàu'); END</v>
       </c>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
     </row>
     <row r="33" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -5771,27 +5715,27 @@
       <c r="D33" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="45" t="str">
+      <c r="F33" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty cổ phần China Steel Sumikin Việt Nam') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'China Steel sumikiu VN ' ,N'Công ty cổ phần China Steel Sumikin Việt Nam', 2, N'KCN Mỹ Xuân A2, xã Mỹ Xuân, huyện Tân Thành, Bà Rịa - Vũng Tàu'); END</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
     </row>
     <row r="34" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -5806,27 +5750,27 @@
       <c r="D34" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F34" s="45" t="str">
+      <c r="F34" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty TNHH xi măng SIAM city Nhơn Trạch - Việt Nam') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'SIAM ' ,N'Công ty TNHH xi măng SIAM city Nhơn Trạch - Việt Nam', 19, N'KCN Ông Kèo, xã Phước Khánh, Nhơn Trạch, Đồng Nai'); END</v>
       </c>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
     </row>
     <row r="35" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
@@ -5841,27 +5785,27 @@
       <c r="D35" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="45" t="str">
+      <c r="F35" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công Ty TNHH Thép Vina Kyoei') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Thép Kyoei ' ,N'Công Ty TNHH Thép Vina Kyoei', 2, N'KCN Phú Mỹ I, trị trấn Phú Mỹ, huyện Tân Thành, tỉnh Bà Rịa - Vũng Tàu'); END</v>
       </c>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
     </row>
     <row r="36" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
@@ -5876,27 +5820,27 @@
       <c r="D36" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F36" s="45" t="str">
+      <c r="F36" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Chi nhánh công ty TNHH Wilmar Agro Việt Nam tại Thốt Nốt') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'CN Wilmar agro ' ,N'Chi nhánh công ty TNHH Wilmar Agro Việt Nam tại Thốt Nốt', 13, N'KCN Thốt Nốt, P. Thới Bình, Q. Thốt Nốt. Tp Cần Thơ'); END</v>
       </c>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
     </row>
     <row r="37" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
@@ -5911,27 +5855,27 @@
       <c r="D37" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F37" s="45" t="str">
+      <c r="F37" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty TNHH hóa chất AGC Việt Nam') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'AGC VN ' ,N'Công ty TNHH hóa chất AGC Việt Nam', 2, N'Khu công nghiệp Cái Mép, Phường Tân Phước, thị xã Phú Mỹ, Bà Rịa - Vũng Tàu'); END</v>
       </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
     </row>
     <row r="38" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
@@ -5946,27 +5890,27 @@
       <c r="D38" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F38" s="45" t="str">
+      <c r="F38" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty TNHH một thành viên Tôn Hoa Sen') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Tôn Hoa Sen ' ,N'Công ty TNHH một thành viên Tôn Hoa Sen', 9, N'Khu Công Nghiệp Sóng Thần 2, Đại Lộ H., Đường số 9, Dĩ An, Bình Dương'); END</v>
       </c>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
     </row>
     <row r="39" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
@@ -5981,27 +5925,27 @@
       <c r="D39" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F39" s="45" t="str">
+      <c r="F39" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty TNHH Samsung SDI Việt Nam') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Samsung SDI ' ,N'Công ty TNHH Samsung SDI Việt Nam', 6, N'Khu công nghiệp Yên Phong I, Xã Yên Trung, Huyện Yên Phong, Bắc Ninh'); END</v>
       </c>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
     </row>
     <row r="40" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
@@ -6016,27 +5960,27 @@
       <c r="D40" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="F40" s="45" t="str">
+      <c r="F40" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty cổ phần gang thép Nghi Sơn') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'GT NGhi Sơn ' ,N'Công ty cổ phần gang thép Nghi Sơn', 57, N'Khu liên hợp gang thép Nghi Sơn, khu kinh tế Nghi Sơn, xã Hải Thượng, huyện Tĩnh Gia, tỉnh Thanh Hóa'); END</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
     </row>
     <row r="41" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
@@ -6051,27 +5995,27 @@
       <c r="D41" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F41" s="45" t="str">
+      <c r="F41" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty TNHH Công nghiệp nặng DOOSAN Hải Phòng Việt Nam') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'CTTNHHDSVN ' ,N'Công ty TNHH Công nghiệp nặng DOOSAN Hải Phòng Việt Nam', 28, N'Km 92, Quốc lộ 5, Sở Dầu, Q. Hồng Bàng,Tp. Hải Phòng'); END</v>
       </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
     </row>
     <row r="42" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -6086,27 +6030,27 @@
       <c r="D42" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F42" s="45" t="str">
+      <c r="F42" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty TNHH Bách Việt Đồng Nai') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Bách Việt ĐN ' ,N'Công ty TNHH Bách Việt Đồng Nai', 19, N'Lầu 1 -Số 27 - Tổ 6 - P.Tam Hiệp, Biên Hòa, Đồng Nai'); END</v>
       </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="45"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
     </row>
     <row r="43" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
@@ -6121,27 +6065,27 @@
       <c r="D43" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="F43" s="45" t="str">
+      <c r="F43" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'VPĐD AMERICAN TEC COMPANY LIMITED TẠI TP. HCM') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'NULL ' ,N'VPĐD AMERICAN TEC COMPANY LIMITED TẠI TP. HCM', 66, N'Lầu 3, số 156C Lý Tự Trọng - Phương Bến Thành - Quận 1 - Tp. Hồ Chí Minh'); END</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="45"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
     </row>
     <row r="44" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
@@ -6156,27 +6100,27 @@
       <c r="D44" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F44" s="45" t="str">
+      <c r="F44" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty trách nhiệm hữu hạn Shiseido Việt Nam') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Shiseido ' ,N'Công ty trách nhiệm hữu hạn Shiseido Việt Nam', 19, N'Lô 231-233-235-237, đường Amata, KCN Amata, P. Long Bình, TP Biên Hòa'); END</v>
       </c>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
     </row>
     <row r="45" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
@@ -6191,27 +6135,27 @@
       <c r="D45" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="F45" s="45" t="str">
+      <c r="F45" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty TNHH Liên Á Âu') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'liên Á ÂU ' ,N'Công ty TNHH Liên Á Âu', 9, N'Lô C2-08, đường TC 3, làng chuyên gia Ruby Land, KCN Mỹ Phước II, phường Mỹ Phước, thị xã Bến Cát, tỉnh Bình Dương'); END</v>
       </c>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="45"/>
-      <c r="V45" s="45"/>
-      <c r="W45" s="45"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
     </row>
     <row r="46" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
@@ -6226,27 +6170,27 @@
       <c r="D46" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F46" s="45" t="str">
+      <c r="F46" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty cổ phần kim khí Nam Hưng') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Nam Hưng ' ,N'Công ty cổ phần kim khí Nam Hưng', 40, N'Lô D2-4 Vĩnh Lộc 2, KCN Vĩnh Lộc 2, Ấp Voi Lá, Xã Long Hiệp, Huyện Bến Lức, Tỉnh Long An'); END</v>
       </c>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="45"/>
-      <c r="V46" s="45"/>
-      <c r="W46" s="45"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
     </row>
     <row r="47" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
@@ -6261,27 +6205,27 @@
       <c r="D47" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F47" s="45" t="str">
+      <c r="F47" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty TNHH Posco - Việt Nam') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'TNHH Posco ' ,N'Công ty TNHH Posco - Việt Nam', 2, N'Lô số 1, KCN Phú Mỹ II, thị trấn Phú Mỹ, huyện Tân Thành, tỉnh Bà Rịa - Vũng Tàu'); END</v>
       </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="45"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
     </row>
     <row r="48" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
@@ -6296,27 +6240,27 @@
       <c r="D48" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F48" s="45" t="str">
+      <c r="F48" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty hữu hạn cơ khí động lực Toàn Cầu') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Toàn Cầu ' ,N'Công ty hữu hạn cơ khí động lực Toàn Cầu', 19, N'Lô số 7, Khu công nghiệp Giang Điền, Huyện Trảng Bom, Tỉnh Đồng Nai'); END</v>
       </c>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="45"/>
-      <c r="U48" s="45"/>
-      <c r="V48" s="45"/>
-      <c r="W48" s="45"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
     </row>
     <row r="49" spans="1:23" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
@@ -6331,27 +6275,27 @@
       <c r="D49" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F49" s="45" t="str">
+      <c r="F49" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.Customer where [FullName] = N'Công ty TNHH Dongyang electronics Việt Nam') BEGIN INSERT INTO dbo.Customer  ([ShortName],[FullName],[CityId],[Address]) VALUES (N'Dongyang ' ,N'Công ty TNHH Dongyang electronics Việt Nam', 63, N'Lô số CN4, khu số 1, KCN Bá Thiện, Xã Bá Hiến, Huyện Bình Xuyên, Vĩnh Phúc'); END</v>
       </c>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="45"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
     </row>
     <row r="545" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H545" s="9">
@@ -6372,11 +6316,37 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F2:W2"/>
-    <mergeCell ref="F3:W3"/>
-    <mergeCell ref="F4:W4"/>
-    <mergeCell ref="F5:W5"/>
-    <mergeCell ref="F6:W6"/>
+    <mergeCell ref="F49:W49"/>
+    <mergeCell ref="F43:W43"/>
+    <mergeCell ref="F44:W44"/>
+    <mergeCell ref="F45:W45"/>
+    <mergeCell ref="F46:W46"/>
+    <mergeCell ref="F47:W47"/>
+    <mergeCell ref="F48:W48"/>
+    <mergeCell ref="F42:W42"/>
+    <mergeCell ref="F31:W31"/>
+    <mergeCell ref="F32:W32"/>
+    <mergeCell ref="F33:W33"/>
+    <mergeCell ref="F34:W34"/>
+    <mergeCell ref="F35:W35"/>
+    <mergeCell ref="F36:W36"/>
+    <mergeCell ref="F37:W37"/>
+    <mergeCell ref="F38:W38"/>
+    <mergeCell ref="F39:W39"/>
+    <mergeCell ref="F40:W40"/>
+    <mergeCell ref="F41:W41"/>
+    <mergeCell ref="F30:W30"/>
+    <mergeCell ref="F19:W19"/>
+    <mergeCell ref="F20:W20"/>
+    <mergeCell ref="F21:W21"/>
+    <mergeCell ref="F22:W22"/>
+    <mergeCell ref="F23:W23"/>
+    <mergeCell ref="F24:W24"/>
+    <mergeCell ref="F25:W25"/>
+    <mergeCell ref="F26:W26"/>
+    <mergeCell ref="F27:W27"/>
+    <mergeCell ref="F28:W28"/>
+    <mergeCell ref="F29:W29"/>
     <mergeCell ref="F18:W18"/>
     <mergeCell ref="F7:W7"/>
     <mergeCell ref="F8:W8"/>
@@ -6389,37 +6359,11 @@
     <mergeCell ref="F15:W15"/>
     <mergeCell ref="F16:W16"/>
     <mergeCell ref="F17:W17"/>
-    <mergeCell ref="F30:W30"/>
-    <mergeCell ref="F19:W19"/>
-    <mergeCell ref="F20:W20"/>
-    <mergeCell ref="F21:W21"/>
-    <mergeCell ref="F22:W22"/>
-    <mergeCell ref="F23:W23"/>
-    <mergeCell ref="F24:W24"/>
-    <mergeCell ref="F25:W25"/>
-    <mergeCell ref="F26:W26"/>
-    <mergeCell ref="F27:W27"/>
-    <mergeCell ref="F28:W28"/>
-    <mergeCell ref="F29:W29"/>
-    <mergeCell ref="F42:W42"/>
-    <mergeCell ref="F31:W31"/>
-    <mergeCell ref="F32:W32"/>
-    <mergeCell ref="F33:W33"/>
-    <mergeCell ref="F34:W34"/>
-    <mergeCell ref="F35:W35"/>
-    <mergeCell ref="F36:W36"/>
-    <mergeCell ref="F37:W37"/>
-    <mergeCell ref="F38:W38"/>
-    <mergeCell ref="F39:W39"/>
-    <mergeCell ref="F40:W40"/>
-    <mergeCell ref="F41:W41"/>
-    <mergeCell ref="F49:W49"/>
-    <mergeCell ref="F43:W43"/>
-    <mergeCell ref="F44:W44"/>
-    <mergeCell ref="F45:W45"/>
-    <mergeCell ref="F46:W46"/>
-    <mergeCell ref="F47:W47"/>
-    <mergeCell ref="F48:W48"/>
+    <mergeCell ref="F2:W2"/>
+    <mergeCell ref="F3:W3"/>
+    <mergeCell ref="F4:W4"/>
+    <mergeCell ref="F5:W5"/>
+    <mergeCell ref="F6:W6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6478,25 +6422,25 @@
       <c r="F2" t="s">
         <v>427</v>
       </c>
-      <c r="H2" s="45" t="str">
+      <c r="H2" s="38" t="str">
         <f>_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[Machine] where [Name] = N'",A2,"') BEGIN INSERT INTO dbo.[Machine]  ([Name],[MachineTypeId],[Model],[Serial],[Manufacturer],[MadeIn]) VALUES (N'",A2,"',  ",B2,",  '",C2, "', '",D2, "', '",E2,"','", F2,"'); END")</f>
         <v>if not exists (SELECT * FROM  dbo.[Machine] where [Name] = N'Dose rate meter') BEGIN INSERT INTO dbo.[Machine]  ([Name],[MachineTypeId],[Model],[Serial],[Manufacturer],[MadeIn]) VALUES (N'Dose rate meter',  1,  '123', '123', 'Fluke','Đức'); END</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
     </row>
     <row r="3" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6517,25 +6461,25 @@
       <c r="F3" t="s">
         <v>428</v>
       </c>
-      <c r="H3" s="45" t="str">
+      <c r="H3" s="38" t="str">
         <f t="shared" ref="H3:H5" si="0">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[Machine] where [Name] = N'",A3,"') BEGIN INSERT INTO dbo.[Machine]  ([Name],[MachineTypeId],[Model],[Serial],[Manufacturer],[MadeIn]) VALUES (N'",A3,"',  ",B3,",  '",C3, "', '",D3, "', '",E3,"','", F3,"'); END")</f>
         <v>if not exists (SELECT * FROM  dbo.[Machine] where [Name] = N'Digiagem') BEGIN INSERT INTO dbo.[Machine]  ([Name],[MachineTypeId],[Model],[Serial],[Manufacturer],[MadeIn]) VALUES (N'Digiagem',  2,  '1234', '12345', 'Rad','Hoa Kỳ'); END</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6556,25 +6500,25 @@
       <c r="F4" t="s">
         <v>429</v>
       </c>
-      <c r="H4" s="45" t="str">
+      <c r="H4" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.[Machine] where [Name] = N'radiagem') BEGIN INSERT INTO dbo.[Machine]  ([Name],[MachineTypeId],[Model],[Serial],[Manufacturer],[MadeIn]) VALUES (N'radiagem',  3,  '4321', '4321', 'RadPro','Việt Nam'); END</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
     </row>
     <row r="5" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6595,25 +6539,25 @@
       <c r="F5" t="s">
         <v>428</v>
       </c>
-      <c r="H5" s="45" t="str">
+      <c r="H5" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.[Machine] where [Name] = N'Iden') BEGIN INSERT INTO dbo.[Machine]  ([Name],[MachineTypeId],[Model],[Serial],[Manufacturer],[MadeIn]) VALUES (N'Iden',  1,  '123', '9873', 'IndentiFinder','Hoa Kỳ'); END</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6675,25 +6619,25 @@
       <c r="E2" t="s">
         <v>272</v>
       </c>
-      <c r="G2" s="45" t="str">
+      <c r="G2" s="38" t="str">
         <f>_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[Sensor] where [Serial] = N'",D2,"') BEGIN INSERT INTO dbo.[Sensor]  ([MachineId],[SensorTypeId],[Model],[Serial]) VALUES (",A2,",  ",B2,",  '",C2, "', '",D2, "' ); END")</f>
         <v>if not exists (SELECT * FROM  dbo.[Sensor] where [Serial] = N'123') BEGIN INSERT INTO dbo.[Sensor]  ([MachineId],[SensorTypeId],[Model],[Serial]) VALUES (1,  1,  '123', '123' ); END</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
     </row>
     <row r="3" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -6711,25 +6655,25 @@
       <c r="E3" t="s">
         <v>274</v>
       </c>
-      <c r="G3" s="45" t="str">
+      <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:G5" si="0">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[Sensor] where [Serial] = N'",D3,"') BEGIN INSERT INTO dbo.[Sensor]  ([MachineId],[SensorTypeId],[Model],[Serial]) VALUES (",A3,",  ",B3,",  '",C3, "', '",D3, "' ); END")</f>
         <v>if not exists (SELECT * FROM  dbo.[Sensor] where [Serial] = N'12345') BEGIN INSERT INTO dbo.[Sensor]  ([MachineId],[SensorTypeId],[Model],[Serial]) VALUES (1,  2,  '1234', '12345' ); END</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
     </row>
     <row r="4" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -6747,25 +6691,25 @@
       <c r="E4" t="s">
         <v>276</v>
       </c>
-      <c r="G4" s="45" t="str">
+      <c r="G4" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.[Sensor] where [Serial] = N'4321') BEGIN INSERT INTO dbo.[Sensor]  ([MachineId],[SensorTypeId],[Model],[Serial]) VALUES (2,  3,  '4321', '4321' ); END</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
     </row>
     <row r="5" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -6783,25 +6727,25 @@
       <c r="E5" t="s">
         <v>278</v>
       </c>
-      <c r="G5" s="45" t="str">
+      <c r="G5" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.[Sensor] where [Serial] = N'9873') BEGIN INSERT INTO dbo.[Sensor]  ([MachineId],[SensorTypeId],[Model],[Serial]) VALUES (3,  1,  '123', '9873' ); END</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6906,25 +6850,25 @@
         <v>298</v>
       </c>
       <c r="K2" s="11"/>
-      <c r="M2" s="45" t="str">
+      <c r="M2" s="38" t="str">
         <f>_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[Certificate] where [CertificateNumber] = ",A2,") BEGIN INSERT INTO dbo.[Certificate]  ([CertificateNumber],[DoseQuantityId],[CalibDate], [MachineId], [CustomerId], [Temperature], [Humidity], [Pressure],[PerformedBy],[TM],[Note]) VALUES (",A2,", ",B2,",'",C2,"',  ",D2, ",",E2,", ",F2, ",",G2, ",",H2,",N'",I2,"',N'",J2, "',N'", K2,"'); END")</f>
         <v>if not exists (SELECT * FROM  dbo.[Certificate] where [CertificateNumber] = 1) BEGIN INSERT INTO dbo.[Certificate]  ([CertificateNumber],[DoseQuantityId],[CalibDate], [MachineId], [CustomerId], [Temperature], [Humidity], [Pressure],[PerformedBy],[TM],[Note]) VALUES (1, 1,'2/2/2021',  1,1, 20.2,50,1013,N'nnQuynh',N'TM1',N''); END</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
     </row>
     <row r="3" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
@@ -6958,25 +6902,25 @@
         <v>298</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="M3" s="45" t="str">
+      <c r="M3" s="38" t="str">
         <f t="shared" ref="M3:M5" si="0">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[Certificate] where [CertificateNumber] = ",A3,") BEGIN INSERT INTO dbo.[Certificate]  ([CertificateNumber],[DoseQuantityId],[CalibDate], [MachineId], [CustomerId], [Temperature], [Humidity], [Pressure],[PerformedBy],[TM],[Note]) VALUES (",A3,", ",B3,",'",C3,"',  ",D3, ",",E3,", ",F3, ",",G3, ",",H3,",N'",I3,"',N'",J3, "',N'", K3,"'); END")</f>
         <v>if not exists (SELECT * FROM  dbo.[Certificate] where [CertificateNumber] = 2) BEGIN INSERT INTO dbo.[Certificate]  ([CertificateNumber],[DoseQuantityId],[CalibDate], [MachineId], [CustomerId], [Temperature], [Humidity], [Pressure],[PerformedBy],[TM],[Note]) VALUES (2, 2,'5/12/2021',  2,2, 21.1,60,1014,N'Bdky',N'TM1',N''); END</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
     </row>
     <row r="4" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
@@ -7012,25 +6956,25 @@
       <c r="K4" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="M4" s="45" t="str">
+      <c r="M4" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.[Certificate] where [CertificateNumber] = 3) BEGIN INSERT INTO dbo.[Certificate]  ([CertificateNumber],[DoseQuantityId],[CalibDate], [MachineId], [CustomerId], [Temperature], [Humidity], [Pressure],[PerformedBy],[TM],[Note]) VALUES (3, 3,'11/25/2021',  3,3, 22,70,1016,N'abc',N'TM2',N'Màn hình bị mờ'); END</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
     </row>
     <row r="5" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -7064,25 +7008,25 @@
         <v>299</v>
       </c>
       <c r="K5" s="11"/>
-      <c r="M5" s="45" t="str">
+      <c r="M5" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.[Certificate] where [CertificateNumber] = 4) BEGIN INSERT INTO dbo.[Certificate]  ([CertificateNumber],[DoseQuantityId],[CalibDate], [MachineId], [CustomerId], [Temperature], [Humidity], [Pressure],[PerformedBy],[TM],[Note]) VALUES (4, 1,'12/22/2021',  4,4, 21,65,1016,N'user1',N'TM2',N''); END</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P14" s="12"/>
@@ -7177,25 +7121,25 @@
       <c r="I2">
         <v>0.15</v>
       </c>
-      <c r="K2" s="45" t="str">
+      <c r="K2" s="38" t="str">
         <f>_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[CalibData] where [CalibDataId] = ",A2,") BEGIN INSERT INTO dbo.[CalibData]  ([CertificateId],[RadQuantityId], [MachineReading], [MachineUnit], [RefValue], [RefUnit], [CF], [CF_reUnc]) VALUES (",B2,",  ",C2,",  '",D2, "', '",E2, "',", F2, ",'",G2, "',",H2,",",I2,  " ); END")</f>
         <v>if not exists (SELECT * FROM  dbo.[CalibData] where [CalibDataId] = 1) BEGIN INSERT INTO dbo.[CalibData]  ([CertificateId],[RadQuantityId], [MachineReading], [MachineUnit], [RefValue], [RefUnit], [CF], [CF_reUnc]) VALUES (1,  1,  '12,45;12,47;12,46', 'cps',12,'uSv/h',1,0.15 ); END</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
     </row>
     <row r="3" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -7225,25 +7169,25 @@
       <c r="I3">
         <v>0.15</v>
       </c>
-      <c r="K3" s="45" t="str">
+      <c r="K3" s="38" t="str">
         <f t="shared" ref="K3:K5" si="0">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.[CalibData] where [CalibDataId] = ",A3,") BEGIN INSERT INTO dbo.[CalibData]  ([CertificateId],[RadQuantityId], [MachineReading], [MachineUnit], [RefValue], [RefUnit], [CF], [CF_reUnc]) VALUES (",B3,",  ",C3,",  '",D3, "', '",E3, "',", F3, ",'",G3, "',",H3,",",I3,  " ); END")</f>
         <v>if not exists (SELECT * FROM  dbo.[CalibData] where [CalibDataId] = 2) BEGIN INSERT INTO dbo.[CalibData]  ([CertificateId],[RadQuantityId], [MachineReading], [MachineUnit], [RefValue], [RefUnit], [CF], [CF_reUnc]) VALUES (1,  1,  '12,45;12,47;12,46', 'cps',13,'cps',1,0.15 ); END</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
     </row>
     <row r="4" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -7273,25 +7217,25 @@
       <c r="I4">
         <v>0.15</v>
       </c>
-      <c r="K4" s="45" t="str">
+      <c r="K4" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.[CalibData] where [CalibDataId] = 3) BEGIN INSERT INTO dbo.[CalibData]  ([CertificateId],[RadQuantityId], [MachineReading], [MachineUnit], [RefValue], [RefUnit], [CF], [CF_reUnc]) VALUES (1,  2,  '12,45;12,47;12,46', 'cps',13,'cps',1,0.15 ); END</v>
       </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
     </row>
     <row r="5" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -7321,25 +7265,25 @@
       <c r="I5">
         <v>0.15</v>
       </c>
-      <c r="K5" s="45" t="str">
+      <c r="K5" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.[CalibData] where [CalibDataId] = 4) BEGIN INSERT INTO dbo.[CalibData]  ([CertificateId],[RadQuantityId], [MachineReading], [MachineUnit], [RefValue], [RefUnit], [CF], [CF_reUnc]) VALUES (1,  3,  '12,45;12,47;12,46', 'cps',14,'cps',1,0.15 ); END</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7652,7 +7596,7 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="24" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -7673,7 +7617,7 @@
       <c r="B2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="E2" t="str">
@@ -7688,7 +7632,7 @@
       <c r="B3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="E3" t="str">
@@ -7703,7 +7647,7 @@
       <c r="B4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="E4" t="str">
@@ -7718,7 +7662,7 @@
       <c r="B5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="E5" t="str">
@@ -7733,7 +7677,7 @@
       <c r="B6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="E6" t="str">
@@ -7748,7 +7692,7 @@
       <c r="B7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="E7" t="str">
@@ -7763,7 +7707,7 @@
       <c r="B8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="E8" t="str">
@@ -7778,7 +7722,7 @@
       <c r="B9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="E9" t="str">
@@ -7793,7 +7737,7 @@
       <c r="B10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="E10" t="str">
@@ -7808,7 +7752,7 @@
       <c r="B11" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="E11" t="str">
@@ -8967,46 +8911,46 @@
         <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>88</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9069,29 +9013,29 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Q2" s="45" t="str">
+      <c r="Q2" s="38" t="str">
         <f>_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.Role where [Name] = N'",A2,"') BEGIN INSERT INTO dbo.Role  ([Name], [User], [Permission],[BackupDB], [RestoreDB],[RadQuantity],[DoseQuantity],[Unit],[TM],[Certificate],[Customer],[City],[MachineName],[MachineType],[SensorType]) VALUES (N'",A2,"', ",B2,", ",C2,", ",D2,", ",E2,", ",F2,", ",G2,", ",H2,", ",I2,", ",J2,", ",K2,", ",L2,", ",M2,", ",N2,", ",O2,"); END")</f>
         <v>if not exists (SELECT * FROM  dbo.Role where [Name] = N'Viewer') BEGIN INSERT INTO dbo.Role  ([Name], [User], [Permission],[BackupDB], [RestoreDB],[RadQuantity],[DoseQuantity],[Unit],[TM],[Certificate],[Customer],[City],[MachineName],[MachineType],[SensorType]) VALUES (N'Viewer', 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16, 16); END</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
     </row>
     <row r="3" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -9153,29 +9097,29 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="Q3" s="45" t="str">
+      <c r="Q3" s="38" t="str">
         <f t="shared" ref="Q3:Q6" si="2">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.Role where [Name] = N'",A3,"') BEGIN INSERT INTO dbo.Role  ([Name], [User], [Permission],[BackupDB], [RestoreDB],[RadQuantity],[DoseQuantity],[Unit],[TM],[Certificate],[Customer],[City],[MachineName],[MachineType],[SensorType]) VALUES (N'",A3,"', ",B3,", ",C3,", ",D3,", ",E3,", ",F3,", ",G3,", ",H3,", ",I3,", ",J3,", ",K3,", ",L3,", ",M3,", ",N3,", ",O3,"); END")</f>
         <v>if not exists (SELECT * FROM  dbo.Role where [Name] = N'Technical') BEGIN INSERT INTO dbo.Role  ([Name], [User], [Permission],[BackupDB], [RestoreDB],[RadQuantity],[DoseQuantity],[Unit],[TM],[Certificate],[Customer],[City],[MachineName],[MachineType],[SensorType]) VALUES (N'Technical', 0, 0, 0, 0, 16, 16, 16, 28, 31, 28, 28, 30, 28, 28); END</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
     </row>
     <row r="4" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -9237,29 +9181,29 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="Q4" s="45" t="str">
+      <c r="Q4" s="38" t="str">
         <f t="shared" si="2"/>
         <v>if not exists (SELECT * FROM  dbo.Role where [Name] = N'TM') BEGIN INSERT INTO dbo.Role  ([Name], [User], [Permission],[BackupDB], [RestoreDB],[RadQuantity],[DoseQuantity],[Unit],[TM],[Certificate],[Customer],[City],[MachineName],[MachineType],[SensorType]) VALUES (N'TM', 28, 16, 28, 16, 30, 30, 30, 30, 31, 30, 30, 30, 30, 30); END</v>
       </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="45"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
     </row>
     <row r="5" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -9321,29 +9265,29 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="Q5" s="45" t="str">
+      <c r="Q5" s="38" t="str">
         <f t="shared" si="2"/>
         <v>if not exists (SELECT * FROM  dbo.Role where [Name] = N'QM') BEGIN INSERT INTO dbo.Role  ([Name], [User], [Permission],[BackupDB], [RestoreDB],[RadQuantity],[DoseQuantity],[Unit],[TM],[Certificate],[Customer],[City],[MachineName],[MachineType],[SensorType]) VALUES (N'QM', 30, 20, 30, 30, 30, 30, 30, 30, 31, 30, 30, 30, 30, 30); END</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
     </row>
     <row r="6" spans="1:36" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -9405,1688 +9349,1651 @@
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="Q6" s="45" t="str">
+      <c r="Q6" s="38" t="str">
         <f t="shared" si="2"/>
         <v>if not exists (SELECT * FROM  dbo.Role where [Name] = N'Admin') BEGIN INSERT INTO dbo.Role  ([Name], [User], [Permission],[BackupDB], [RestoreDB],[RadQuantity],[DoseQuantity],[Unit],[TM],[Certificate],[Customer],[City],[MachineName],[MachineType],[SensorType]) VALUES (N'Admin', 30, 20, 30, 30, 30, 30, 30, 30, 31, 30, 30, 30, 30, 30); END</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="45"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
     </row>
     <row r="9" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="B10" s="37" t="str">
+      <c r="B10" s="31" t="str">
         <f>$B$1</f>
         <v>User</v>
       </c>
-      <c r="C10" s="37" t="str">
+      <c r="C10" s="31" t="str">
         <f>$C$1</f>
         <v>Permission</v>
       </c>
-      <c r="D10" s="37" t="str">
+      <c r="D10" s="31" t="str">
         <f>$D$1</f>
         <v>BackupDB</v>
       </c>
-      <c r="E10" s="37" t="str">
+      <c r="E10" s="31" t="str">
         <f>$E$1</f>
         <v>RestoreDB</v>
       </c>
-      <c r="F10" s="37" t="str">
+      <c r="F10" s="31" t="str">
         <f>$F$1</f>
         <v>RadQuantity</v>
       </c>
-      <c r="G10" s="37" t="str">
+      <c r="G10" s="31" t="str">
         <f>$G$1</f>
         <v>DoseQuantity</v>
       </c>
-      <c r="H10" s="37" t="str">
+      <c r="H10" s="31" t="str">
         <f>$H$1</f>
         <v>Unit</v>
       </c>
-      <c r="I10" s="37" t="str">
+      <c r="I10" s="31" t="str">
         <f>$I$1</f>
         <v>TM</v>
       </c>
-      <c r="J10" s="37" t="str">
+      <c r="J10" s="31" t="str">
         <f>$J$1</f>
         <v>Certificate</v>
       </c>
-      <c r="K10" s="37" t="str">
+      <c r="K10" s="31" t="str">
         <f>$K$1</f>
         <v>Customer</v>
       </c>
-      <c r="L10" s="37" t="str">
+      <c r="L10" s="31" t="str">
         <f>$L$1</f>
         <v>City</v>
       </c>
-      <c r="M10" s="37" t="str">
+      <c r="M10" s="31" t="str">
         <f>$M$1</f>
         <v>MachineName</v>
       </c>
-      <c r="N10" s="37" t="str">
+      <c r="N10" s="31" t="str">
         <f>$N$1</f>
         <v>MachineType</v>
       </c>
-      <c r="O10" s="38" t="str">
+      <c r="O10" s="32" t="str">
         <f>$O$1</f>
         <v>SensorType</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="B11" s="39">
-        <v>1</v>
-      </c>
-      <c r="C11" s="39">
-        <v>1</v>
-      </c>
-      <c r="D11" s="39">
-        <v>1</v>
-      </c>
-      <c r="E11" s="39">
-        <v>1</v>
-      </c>
-      <c r="F11" s="39">
-        <v>1</v>
-      </c>
-      <c r="G11" s="39">
-        <v>1</v>
-      </c>
-      <c r="H11" s="39">
-        <v>1</v>
-      </c>
-      <c r="I11" s="39">
-        <v>1</v>
-      </c>
-      <c r="J11" s="39">
-        <v>1</v>
-      </c>
-      <c r="K11" s="39">
-        <v>1</v>
-      </c>
-      <c r="L11" s="39">
-        <v>1</v>
-      </c>
-      <c r="M11" s="39">
-        <v>1</v>
-      </c>
-      <c r="N11" s="39">
-        <v>1</v>
-      </c>
-      <c r="O11" s="40">
+      <c r="A11" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="B11" s="33">
+        <v>1</v>
+      </c>
+      <c r="C11" s="33">
+        <v>1</v>
+      </c>
+      <c r="D11" s="33">
+        <v>1</v>
+      </c>
+      <c r="E11" s="33">
+        <v>1</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1</v>
+      </c>
+      <c r="G11" s="33">
+        <v>1</v>
+      </c>
+      <c r="H11" s="33">
+        <v>1</v>
+      </c>
+      <c r="I11" s="33">
+        <v>1</v>
+      </c>
+      <c r="J11" s="33">
+        <v>1</v>
+      </c>
+      <c r="K11" s="33">
+        <v>1</v>
+      </c>
+      <c r="L11" s="33">
+        <v>1</v>
+      </c>
+      <c r="M11" s="33">
+        <v>1</v>
+      </c>
+      <c r="N11" s="33">
+        <v>1</v>
+      </c>
+      <c r="O11" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="B12" s="28">
+      <c r="A12" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="B12" s="3">
         <v>0</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28">
+      <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="B13" s="28">
+      <c r="A13" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="B13" s="3">
         <v>0</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="3">
         <v>0</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="B14" s="28">
+      <c r="A14" s="27" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" s="3">
         <v>0</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28">
+      <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28">
+      <c r="A15" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="41"/>
+      <c r="O15" s="35"/>
     </row>
     <row r="16" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
-        <v>543</v>
-      </c>
-      <c r="B16" s="43">
+      <c r="A16" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="B16" s="37">
         <f>B15+B14*2+B13*2^2+B12*2^3+B11*2^4</f>
         <v>16</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="37">
         <f t="shared" ref="C16" si="6">C15+C14*2+C13*2^2+C12*2^3+C11*2^4</f>
         <v>16</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="37">
         <f t="shared" ref="D16" si="7">D15+D14*2+D13*2^2+D12*2^3+D11*2^4</f>
         <v>16</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="37">
         <f t="shared" ref="E16" si="8">E15+E14*2+E13*2^2+E12*2^3+E11*2^4</f>
         <v>16</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="37">
         <f t="shared" ref="F16" si="9">F15+F14*2+F13*2^2+F12*2^3+F11*2^4</f>
         <v>16</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="37">
         <f t="shared" ref="G16" si="10">G15+G14*2+G13*2^2+G12*2^3+G11*2^4</f>
         <v>16</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="37">
         <f t="shared" ref="H16" si="11">H15+H14*2+H13*2^2+H12*2^3+H11*2^4</f>
         <v>16</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="37">
         <f t="shared" ref="I16" si="12">I15+I14*2+I13*2^2+I12*2^3+I11*2^4</f>
         <v>16</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="37">
         <f t="shared" ref="J16" si="13">J15+J14*2+J13*2^2+J12*2^3+J11*2^4</f>
         <v>16</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="37">
         <f t="shared" ref="K16" si="14">K15+K14*2+K13*2^2+K12*2^3+K11*2^4</f>
         <v>16</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="37">
         <f t="shared" ref="L16" si="15">L15+L14*2+L13*2^2+L12*2^3+L11*2^4</f>
         <v>16</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="37">
         <f t="shared" ref="M16" si="16">M15+M14*2+M13*2^2+M12*2^3+M11*2^4</f>
         <v>16</v>
       </c>
-      <c r="N16" s="43">
+      <c r="N16" s="37">
         <f t="shared" ref="N16" si="17">N15+N14*2+N13*2^2+N12*2^3+N11*2^4</f>
         <v>16</v>
       </c>
-      <c r="O16" s="43">
+      <c r="O16" s="37">
         <f t="shared" ref="O16" si="18">O15+O14*2+O13*2^2+O12*2^3+O11*2^4</f>
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="37" t="str">
+      <c r="B18" s="31" t="str">
         <f>$B$1</f>
         <v>User</v>
       </c>
-      <c r="C18" s="37" t="str">
+      <c r="C18" s="31" t="str">
         <f>$C$1</f>
         <v>Permission</v>
       </c>
-      <c r="D18" s="37" t="str">
+      <c r="D18" s="31" t="str">
         <f>$D$1</f>
         <v>BackupDB</v>
       </c>
-      <c r="E18" s="37" t="str">
+      <c r="E18" s="31" t="str">
         <f>$E$1</f>
         <v>RestoreDB</v>
       </c>
-      <c r="F18" s="37" t="str">
+      <c r="F18" s="31" t="str">
         <f>$F$1</f>
         <v>RadQuantity</v>
       </c>
-      <c r="G18" s="37" t="str">
+      <c r="G18" s="31" t="str">
         <f>$G$1</f>
         <v>DoseQuantity</v>
       </c>
-      <c r="H18" s="37" t="str">
+      <c r="H18" s="31" t="str">
         <f>$H$1</f>
         <v>Unit</v>
       </c>
-      <c r="I18" s="37" t="str">
+      <c r="I18" s="31" t="str">
         <f>$I$1</f>
         <v>TM</v>
       </c>
-      <c r="J18" s="37" t="str">
+      <c r="J18" s="31" t="str">
         <f>$J$1</f>
         <v>Certificate</v>
       </c>
-      <c r="K18" s="37" t="str">
+      <c r="K18" s="31" t="str">
         <f>$K$1</f>
         <v>Customer</v>
       </c>
-      <c r="L18" s="37" t="str">
+      <c r="L18" s="31" t="str">
         <f>$L$1</f>
         <v>City</v>
       </c>
-      <c r="M18" s="37" t="str">
+      <c r="M18" s="31" t="str">
         <f>$M$1</f>
         <v>MachineName</v>
       </c>
-      <c r="N18" s="37" t="str">
+      <c r="N18" s="31" t="str">
         <f>$N$1</f>
         <v>MachineType</v>
       </c>
-      <c r="O18" s="38" t="str">
+      <c r="O18" s="32" t="str">
         <f>$O$1</f>
         <v>SensorType</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="B19" s="39">
+      <c r="A19" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" s="33">
         <v>0</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="33">
         <v>0</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="33">
         <v>0</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="33">
         <v>0</v>
       </c>
-      <c r="F19" s="39">
-        <v>1</v>
-      </c>
-      <c r="G19" s="39">
-        <v>1</v>
-      </c>
-      <c r="H19" s="39">
-        <v>1</v>
-      </c>
-      <c r="I19" s="39">
-        <v>1</v>
-      </c>
-      <c r="J19" s="39">
-        <v>1</v>
-      </c>
-      <c r="K19" s="39">
-        <v>1</v>
-      </c>
-      <c r="L19" s="39">
-        <v>1</v>
-      </c>
-      <c r="M19" s="39">
-        <v>1</v>
-      </c>
-      <c r="N19" s="39">
-        <v>1</v>
-      </c>
-      <c r="O19" s="40">
+      <c r="F19" s="33">
+        <v>1</v>
+      </c>
+      <c r="G19" s="33">
+        <v>1</v>
+      </c>
+      <c r="H19" s="33">
+        <v>1</v>
+      </c>
+      <c r="I19" s="33">
+        <v>1</v>
+      </c>
+      <c r="J19" s="33">
+        <v>1</v>
+      </c>
+      <c r="K19" s="33">
+        <v>1</v>
+      </c>
+      <c r="L19" s="33">
+        <v>1</v>
+      </c>
+      <c r="M19" s="33">
+        <v>1</v>
+      </c>
+      <c r="N19" s="33">
+        <v>1</v>
+      </c>
+      <c r="O19" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="B20" s="28">
+      <c r="A20" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="B20" s="3">
         <v>0</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28">
+      <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="28">
-        <v>1</v>
-      </c>
-      <c r="J20" s="28">
-        <v>1</v>
-      </c>
-      <c r="K20" s="28">
-        <v>1</v>
-      </c>
-      <c r="L20" s="28">
-        <v>1</v>
-      </c>
-      <c r="M20" s="28">
-        <v>1</v>
-      </c>
-      <c r="N20" s="28">
-        <v>1</v>
-      </c>
-      <c r="O20" s="41">
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="B21" s="28">
+      <c r="A21" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="B21" s="3">
         <v>0</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="3">
         <v>0</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="I21" s="28">
-        <v>1</v>
-      </c>
-      <c r="J21" s="28">
-        <v>1</v>
-      </c>
-      <c r="K21" s="28">
-        <v>1</v>
-      </c>
-      <c r="L21" s="28">
-        <v>1</v>
-      </c>
-      <c r="M21" s="28">
-        <v>1</v>
-      </c>
-      <c r="N21" s="28">
-        <v>1</v>
-      </c>
-      <c r="O21" s="41">
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="B22" s="28">
+      <c r="A22" s="27" t="s">
+        <v>535</v>
+      </c>
+      <c r="B22" s="3">
         <v>0</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28">
+      <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="28">
-        <v>1</v>
-      </c>
-      <c r="K22" s="28">
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="28">
-        <v>1</v>
-      </c>
-      <c r="N22" s="28">
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="41">
+      <c r="O22" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29">
-        <v>1</v>
-      </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="42"/>
+      <c r="A23" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25">
+        <v>1</v>
+      </c>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="36"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
-        <v>543</v>
-      </c>
-      <c r="B24" s="43">
+      <c r="A24" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="B24" s="37">
         <f>B23+B22*2+B21*2^2+B20*2^3+B19*2^4</f>
         <v>0</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="37">
         <f t="shared" ref="C24" si="19">C23+C22*2+C21*2^2+C20*2^3+C19*2^4</f>
         <v>0</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="37">
         <f t="shared" ref="D24" si="20">D23+D22*2+D21*2^2+D20*2^3+D19*2^4</f>
         <v>0</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="37">
         <f t="shared" ref="E24" si="21">E23+E22*2+E21*2^2+E20*2^3+E19*2^4</f>
         <v>0</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="37">
         <f t="shared" ref="F24" si="22">F23+F22*2+F21*2^2+F20*2^3+F19*2^4</f>
         <v>16</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="37">
         <f t="shared" ref="G24" si="23">G23+G22*2+G21*2^2+G20*2^3+G19*2^4</f>
         <v>16</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="37">
         <f t="shared" ref="H24" si="24">H23+H22*2+H21*2^2+H20*2^3+H19*2^4</f>
         <v>16</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="37">
         <f t="shared" ref="I24" si="25">I23+I22*2+I21*2^2+I20*2^3+I19*2^4</f>
         <v>28</v>
       </c>
-      <c r="J24" s="43">
+      <c r="J24" s="37">
         <f t="shared" ref="J24" si="26">J23+J22*2+J21*2^2+J20*2^3+J19*2^4</f>
         <v>31</v>
       </c>
-      <c r="K24" s="43">
+      <c r="K24" s="37">
         <f t="shared" ref="K24" si="27">K23+K22*2+K21*2^2+K20*2^3+K19*2^4</f>
         <v>28</v>
       </c>
-      <c r="L24" s="43">
+      <c r="L24" s="37">
         <f t="shared" ref="L24" si="28">L23+L22*2+L21*2^2+L20*2^3+L19*2^4</f>
         <v>28</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="37">
         <f t="shared" ref="M24" si="29">M23+M22*2+M21*2^2+M20*2^3+M19*2^4</f>
         <v>30</v>
       </c>
-      <c r="N24" s="43">
+      <c r="N24" s="37">
         <f t="shared" ref="N24" si="30">N23+N22*2+N21*2^2+N20*2^3+N19*2^4</f>
         <v>28</v>
       </c>
-      <c r="O24" s="43">
+      <c r="O24" s="37">
         <f t="shared" ref="O24" si="31">O23+O22*2+O21*2^2+O20*2^3+O19*2^4</f>
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="37" t="str">
+      <c r="B26" s="31" t="str">
         <f>$B$1</f>
         <v>User</v>
       </c>
-      <c r="C26" s="37" t="str">
+      <c r="C26" s="31" t="str">
         <f>$C$1</f>
         <v>Permission</v>
       </c>
-      <c r="D26" s="37" t="str">
+      <c r="D26" s="31" t="str">
         <f>$D$1</f>
         <v>BackupDB</v>
       </c>
-      <c r="E26" s="37" t="str">
+      <c r="E26" s="31" t="str">
         <f>$E$1</f>
         <v>RestoreDB</v>
       </c>
-      <c r="F26" s="37" t="str">
+      <c r="F26" s="31" t="str">
         <f>$F$1</f>
         <v>RadQuantity</v>
       </c>
-      <c r="G26" s="37" t="str">
+      <c r="G26" s="31" t="str">
         <f>$G$1</f>
         <v>DoseQuantity</v>
       </c>
-      <c r="H26" s="37" t="str">
+      <c r="H26" s="31" t="str">
         <f>$H$1</f>
         <v>Unit</v>
       </c>
-      <c r="I26" s="37" t="str">
+      <c r="I26" s="31" t="str">
         <f>$I$1</f>
         <v>TM</v>
       </c>
-      <c r="J26" s="37" t="str">
+      <c r="J26" s="31" t="str">
         <f>$J$1</f>
         <v>Certificate</v>
       </c>
-      <c r="K26" s="37" t="str">
+      <c r="K26" s="31" t="str">
         <f>$K$1</f>
         <v>Customer</v>
       </c>
-      <c r="L26" s="37" t="str">
+      <c r="L26" s="31" t="str">
         <f>$L$1</f>
         <v>City</v>
       </c>
-      <c r="M26" s="37" t="str">
+      <c r="M26" s="31" t="str">
         <f>$M$1</f>
         <v>MachineName</v>
       </c>
-      <c r="N26" s="37" t="str">
+      <c r="N26" s="31" t="str">
         <f>$N$1</f>
         <v>MachineType</v>
       </c>
-      <c r="O26" s="38" t="str">
+      <c r="O26" s="32" t="str">
         <f>$O$1</f>
         <v>SensorType</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="B27" s="39">
-        <v>1</v>
-      </c>
-      <c r="C27" s="39">
-        <v>1</v>
-      </c>
-      <c r="D27" s="39">
-        <v>1</v>
-      </c>
-      <c r="E27" s="39">
-        <v>1</v>
-      </c>
-      <c r="F27" s="39">
-        <v>1</v>
-      </c>
-      <c r="G27" s="39">
-        <v>1</v>
-      </c>
-      <c r="H27" s="39">
-        <v>1</v>
-      </c>
-      <c r="I27" s="39">
-        <v>1</v>
-      </c>
-      <c r="J27" s="39">
-        <v>1</v>
-      </c>
-      <c r="K27" s="39">
-        <v>1</v>
-      </c>
-      <c r="L27" s="39">
-        <v>1</v>
-      </c>
-      <c r="M27" s="39">
-        <v>1</v>
-      </c>
-      <c r="N27" s="39">
-        <v>1</v>
-      </c>
-      <c r="O27" s="40">
+      <c r="A27" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="B27" s="33">
+        <v>1</v>
+      </c>
+      <c r="C27" s="33">
+        <v>1</v>
+      </c>
+      <c r="D27" s="33">
+        <v>1</v>
+      </c>
+      <c r="E27" s="33">
+        <v>1</v>
+      </c>
+      <c r="F27" s="33">
+        <v>1</v>
+      </c>
+      <c r="G27" s="33">
+        <v>1</v>
+      </c>
+      <c r="H27" s="33">
+        <v>1</v>
+      </c>
+      <c r="I27" s="33">
+        <v>1</v>
+      </c>
+      <c r="J27" s="33">
+        <v>1</v>
+      </c>
+      <c r="K27" s="33">
+        <v>1</v>
+      </c>
+      <c r="L27" s="33">
+        <v>1</v>
+      </c>
+      <c r="M27" s="33">
+        <v>1</v>
+      </c>
+      <c r="N27" s="33">
+        <v>1</v>
+      </c>
+      <c r="O27" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="B28" s="28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="28">
+      <c r="A28" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
         <v>0</v>
       </c>
-      <c r="F28" s="28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="28">
-        <v>1</v>
-      </c>
-      <c r="H28" s="28">
-        <v>1</v>
-      </c>
-      <c r="I28" s="28">
-        <v>1</v>
-      </c>
-      <c r="J28" s="28">
-        <v>1</v>
-      </c>
-      <c r="K28" s="28">
-        <v>1</v>
-      </c>
-      <c r="L28" s="28">
-        <v>1</v>
-      </c>
-      <c r="M28" s="28">
-        <v>1</v>
-      </c>
-      <c r="N28" s="28">
-        <v>1</v>
-      </c>
-      <c r="O28" s="41">
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="B29" s="28">
-        <v>1</v>
-      </c>
-      <c r="C29" s="28">
+      <c r="A29" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
         <v>0</v>
       </c>
-      <c r="D29" s="28">
-        <v>1</v>
-      </c>
-      <c r="E29" s="28">
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="28">
-        <v>1</v>
-      </c>
-      <c r="G29" s="28">
-        <v>1</v>
-      </c>
-      <c r="H29" s="28">
-        <v>1</v>
-      </c>
-      <c r="I29" s="28">
-        <v>1</v>
-      </c>
-      <c r="J29" s="28">
-        <v>1</v>
-      </c>
-      <c r="K29" s="28">
-        <v>1</v>
-      </c>
-      <c r="L29" s="28">
-        <v>1</v>
-      </c>
-      <c r="M29" s="28">
-        <v>1</v>
-      </c>
-      <c r="N29" s="28">
-        <v>1</v>
-      </c>
-      <c r="O29" s="41">
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="B30" s="28">
+      <c r="A30" s="27" t="s">
+        <v>535</v>
+      </c>
+      <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28">
+      <c r="D30" s="3">
         <v>0</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="3">
         <v>0</v>
       </c>
-      <c r="F30" s="28">
-        <v>1</v>
-      </c>
-      <c r="G30" s="28">
-        <v>1</v>
-      </c>
-      <c r="H30" s="28">
-        <v>1</v>
-      </c>
-      <c r="I30" s="28">
-        <v>1</v>
-      </c>
-      <c r="J30" s="28">
-        <v>1</v>
-      </c>
-      <c r="K30" s="28">
-        <v>1</v>
-      </c>
-      <c r="L30" s="28">
-        <v>1</v>
-      </c>
-      <c r="M30" s="28">
-        <v>1</v>
-      </c>
-      <c r="N30" s="28">
-        <v>1</v>
-      </c>
-      <c r="O30" s="41">
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29">
-        <v>1</v>
-      </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="42"/>
+      <c r="A31" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25">
+        <v>1</v>
+      </c>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="36"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
-        <v>543</v>
-      </c>
-      <c r="B32" s="43">
+      <c r="A32" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="B32" s="37">
         <f>B31+B30*2+B29*2^2+B28*2^3+B27*2^4</f>
         <v>28</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="37">
         <f t="shared" ref="C32" si="32">C31+C30*2+C29*2^2+C28*2^3+C27*2^4</f>
         <v>16</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="37">
         <f t="shared" ref="D32" si="33">D31+D30*2+D29*2^2+D28*2^3+D27*2^4</f>
         <v>28</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="37">
         <f t="shared" ref="E32" si="34">E31+E30*2+E29*2^2+E28*2^3+E27*2^4</f>
         <v>16</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="37">
         <f t="shared" ref="F32" si="35">F31+F30*2+F29*2^2+F28*2^3+F27*2^4</f>
         <v>30</v>
       </c>
-      <c r="G32" s="43">
+      <c r="G32" s="37">
         <f t="shared" ref="G32" si="36">G31+G30*2+G29*2^2+G28*2^3+G27*2^4</f>
         <v>30</v>
       </c>
-      <c r="H32" s="43">
+      <c r="H32" s="37">
         <f t="shared" ref="H32" si="37">H31+H30*2+H29*2^2+H28*2^3+H27*2^4</f>
         <v>30</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="37">
         <f t="shared" ref="I32" si="38">I31+I30*2+I29*2^2+I28*2^3+I27*2^4</f>
         <v>30</v>
       </c>
-      <c r="J32" s="43">
+      <c r="J32" s="37">
         <f t="shared" ref="J32" si="39">J31+J30*2+J29*2^2+J28*2^3+J27*2^4</f>
         <v>31</v>
       </c>
-      <c r="K32" s="43">
+      <c r="K32" s="37">
         <f t="shared" ref="K32" si="40">K31+K30*2+K29*2^2+K28*2^3+K27*2^4</f>
         <v>30</v>
       </c>
-      <c r="L32" s="43">
+      <c r="L32" s="37">
         <f t="shared" ref="L32" si="41">L31+L30*2+L29*2^2+L28*2^3+L27*2^4</f>
         <v>30</v>
       </c>
-      <c r="M32" s="43">
+      <c r="M32" s="37">
         <f t="shared" ref="M32" si="42">M31+M30*2+M29*2^2+M28*2^3+M27*2^4</f>
         <v>30</v>
       </c>
-      <c r="N32" s="43">
+      <c r="N32" s="37">
         <f t="shared" ref="N32" si="43">N31+N30*2+N29*2^2+N28*2^3+N27*2^4</f>
         <v>30</v>
       </c>
-      <c r="O32" s="43">
+      <c r="O32" s="37">
         <f t="shared" ref="O32" si="44">O31+O30*2+O29*2^2+O28*2^3+O27*2^4</f>
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="37" t="str">
+      <c r="B34" s="31" t="str">
         <f>$B$1</f>
         <v>User</v>
       </c>
-      <c r="C34" s="37" t="str">
+      <c r="C34" s="31" t="str">
         <f>$C$1</f>
         <v>Permission</v>
       </c>
-      <c r="D34" s="37" t="str">
+      <c r="D34" s="31" t="str">
         <f>$D$1</f>
         <v>BackupDB</v>
       </c>
-      <c r="E34" s="37" t="str">
+      <c r="E34" s="31" t="str">
         <f>$E$1</f>
         <v>RestoreDB</v>
       </c>
-      <c r="F34" s="37" t="str">
+      <c r="F34" s="31" t="str">
         <f>$F$1</f>
         <v>RadQuantity</v>
       </c>
-      <c r="G34" s="37" t="str">
+      <c r="G34" s="31" t="str">
         <f>$G$1</f>
         <v>DoseQuantity</v>
       </c>
-      <c r="H34" s="37" t="str">
+      <c r="H34" s="31" t="str">
         <f>$H$1</f>
         <v>Unit</v>
       </c>
-      <c r="I34" s="37" t="str">
+      <c r="I34" s="31" t="str">
         <f>$I$1</f>
         <v>TM</v>
       </c>
-      <c r="J34" s="37" t="str">
+      <c r="J34" s="31" t="str">
         <f>$J$1</f>
         <v>Certificate</v>
       </c>
-      <c r="K34" s="37" t="str">
+      <c r="K34" s="31" t="str">
         <f>$K$1</f>
         <v>Customer</v>
       </c>
-      <c r="L34" s="37" t="str">
+      <c r="L34" s="31" t="str">
         <f>$L$1</f>
         <v>City</v>
       </c>
-      <c r="M34" s="37" t="str">
+      <c r="M34" s="31" t="str">
         <f>$M$1</f>
         <v>MachineName</v>
       </c>
-      <c r="N34" s="37" t="str">
+      <c r="N34" s="31" t="str">
         <f>$N$1</f>
         <v>MachineType</v>
       </c>
-      <c r="O34" s="38" t="str">
+      <c r="O34" s="32" t="str">
         <f>$O$1</f>
         <v>SensorType</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="B35" s="39">
-        <v>1</v>
-      </c>
-      <c r="C35" s="39">
-        <v>1</v>
-      </c>
-      <c r="D35" s="39">
-        <v>1</v>
-      </c>
-      <c r="E35" s="39">
-        <v>1</v>
-      </c>
-      <c r="F35" s="39">
-        <v>1</v>
-      </c>
-      <c r="G35" s="39">
-        <v>1</v>
-      </c>
-      <c r="H35" s="39">
-        <v>1</v>
-      </c>
-      <c r="I35" s="39">
-        <v>1</v>
-      </c>
-      <c r="J35" s="39">
-        <v>1</v>
-      </c>
-      <c r="K35" s="39">
-        <v>1</v>
-      </c>
-      <c r="L35" s="39">
-        <v>1</v>
-      </c>
-      <c r="M35" s="39">
-        <v>1</v>
-      </c>
-      <c r="N35" s="39">
-        <v>1</v>
-      </c>
-      <c r="O35" s="40">
+      <c r="A35" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="B35" s="33">
+        <v>1</v>
+      </c>
+      <c r="C35" s="33">
+        <v>1</v>
+      </c>
+      <c r="D35" s="33">
+        <v>1</v>
+      </c>
+      <c r="E35" s="33">
+        <v>1</v>
+      </c>
+      <c r="F35" s="33">
+        <v>1</v>
+      </c>
+      <c r="G35" s="33">
+        <v>1</v>
+      </c>
+      <c r="H35" s="33">
+        <v>1</v>
+      </c>
+      <c r="I35" s="33">
+        <v>1</v>
+      </c>
+      <c r="J35" s="33">
+        <v>1</v>
+      </c>
+      <c r="K35" s="33">
+        <v>1</v>
+      </c>
+      <c r="L35" s="33">
+        <v>1</v>
+      </c>
+      <c r="M35" s="33">
+        <v>1</v>
+      </c>
+      <c r="N35" s="33">
+        <v>1</v>
+      </c>
+      <c r="O35" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="B36" s="28">
-        <v>1</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28">
-        <v>1</v>
-      </c>
-      <c r="E36" s="28">
-        <v>1</v>
-      </c>
-      <c r="F36" s="28">
-        <v>1</v>
-      </c>
-      <c r="G36" s="28">
-        <v>1</v>
-      </c>
-      <c r="H36" s="28">
-        <v>1</v>
-      </c>
-      <c r="I36" s="28">
-        <v>1</v>
-      </c>
-      <c r="J36" s="28">
-        <v>1</v>
-      </c>
-      <c r="K36" s="28">
-        <v>1</v>
-      </c>
-      <c r="L36" s="28">
-        <v>1</v>
-      </c>
-      <c r="M36" s="28">
-        <v>1</v>
-      </c>
-      <c r="N36" s="28">
-        <v>1</v>
-      </c>
-      <c r="O36" s="41">
+      <c r="A36" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3">
+        <v>1</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+      <c r="O36" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="B37" s="28">
-        <v>1</v>
-      </c>
-      <c r="C37" s="28">
-        <v>1</v>
-      </c>
-      <c r="D37" s="28">
-        <v>1</v>
-      </c>
-      <c r="E37" s="28">
-        <v>1</v>
-      </c>
-      <c r="F37" s="28">
-        <v>1</v>
-      </c>
-      <c r="G37" s="28">
-        <v>1</v>
-      </c>
-      <c r="H37" s="28">
-        <v>1</v>
-      </c>
-      <c r="I37" s="28">
-        <v>1</v>
-      </c>
-      <c r="J37" s="28">
-        <v>1</v>
-      </c>
-      <c r="K37" s="28">
-        <v>1</v>
-      </c>
-      <c r="L37" s="28">
-        <v>1</v>
-      </c>
-      <c r="M37" s="28">
-        <v>1</v>
-      </c>
-      <c r="N37" s="28">
-        <v>1</v>
-      </c>
-      <c r="O37" s="41">
+      <c r="A37" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1</v>
+      </c>
+      <c r="O37" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="B38" s="28">
-        <v>1</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28">
-        <v>1</v>
-      </c>
-      <c r="E38" s="28">
-        <v>1</v>
-      </c>
-      <c r="F38" s="28">
-        <v>1</v>
-      </c>
-      <c r="G38" s="28">
-        <v>1</v>
-      </c>
-      <c r="H38" s="28">
-        <v>1</v>
-      </c>
-      <c r="I38" s="28">
-        <v>1</v>
-      </c>
-      <c r="J38" s="28">
-        <v>1</v>
-      </c>
-      <c r="K38" s="28">
-        <v>1</v>
-      </c>
-      <c r="L38" s="28">
-        <v>1</v>
-      </c>
-      <c r="M38" s="28">
-        <v>1</v>
-      </c>
-      <c r="N38" s="28">
-        <v>1</v>
-      </c>
-      <c r="O38" s="41">
+      <c r="A38" s="27" t="s">
+        <v>535</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1</v>
+      </c>
+      <c r="O38" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29">
-        <v>1</v>
-      </c>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="42"/>
+      <c r="A39" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25">
+        <v>1</v>
+      </c>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="36"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35" t="s">
-        <v>543</v>
-      </c>
-      <c r="B40" s="43">
+      <c r="A40" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="B40" s="37">
         <f>B39+B38*2+B37*2^2+B36*2^3+B35*2^4</f>
         <v>30</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="37">
         <f t="shared" ref="C40" si="45">C39+C38*2+C37*2^2+C36*2^3+C35*2^4</f>
         <v>20</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="37">
         <f t="shared" ref="D40" si="46">D39+D38*2+D37*2^2+D36*2^3+D35*2^4</f>
         <v>30</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="37">
         <f t="shared" ref="E40" si="47">E39+E38*2+E37*2^2+E36*2^3+E35*2^4</f>
         <v>30</v>
       </c>
-      <c r="F40" s="43">
+      <c r="F40" s="37">
         <f t="shared" ref="F40" si="48">F39+F38*2+F37*2^2+F36*2^3+F35*2^4</f>
         <v>30</v>
       </c>
-      <c r="G40" s="43">
+      <c r="G40" s="37">
         <f t="shared" ref="G40" si="49">G39+G38*2+G37*2^2+G36*2^3+G35*2^4</f>
         <v>30</v>
       </c>
-      <c r="H40" s="43">
+      <c r="H40" s="37">
         <f t="shared" ref="H40" si="50">H39+H38*2+H37*2^2+H36*2^3+H35*2^4</f>
         <v>30</v>
       </c>
-      <c r="I40" s="43">
+      <c r="I40" s="37">
         <f t="shared" ref="I40" si="51">I39+I38*2+I37*2^2+I36*2^3+I35*2^4</f>
         <v>30</v>
       </c>
-      <c r="J40" s="43">
+      <c r="J40" s="37">
         <f t="shared" ref="J40" si="52">J39+J38*2+J37*2^2+J36*2^3+J35*2^4</f>
         <v>31</v>
       </c>
-      <c r="K40" s="43">
+      <c r="K40" s="37">
         <f t="shared" ref="K40" si="53">K39+K38*2+K37*2^2+K36*2^3+K35*2^4</f>
         <v>30</v>
       </c>
-      <c r="L40" s="43">
+      <c r="L40" s="37">
         <f t="shared" ref="L40" si="54">L39+L38*2+L37*2^2+L36*2^3+L35*2^4</f>
         <v>30</v>
       </c>
-      <c r="M40" s="43">
+      <c r="M40" s="37">
         <f t="shared" ref="M40" si="55">M39+M38*2+M37*2^2+M36*2^3+M35*2^4</f>
         <v>30</v>
       </c>
-      <c r="N40" s="43">
+      <c r="N40" s="37">
         <f t="shared" ref="N40" si="56">N39+N38*2+N37*2^2+N36*2^3+N35*2^4</f>
         <v>30</v>
       </c>
-      <c r="O40" s="43">
+      <c r="O40" s="37">
         <f t="shared" ref="O40" si="57">O39+O38*2+O37*2^2+O36*2^3+O35*2^4</f>
         <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="37" t="str">
+      <c r="B42" s="31" t="str">
         <f>$B$1</f>
         <v>User</v>
       </c>
-      <c r="C42" s="37" t="str">
+      <c r="C42" s="31" t="str">
         <f>$C$1</f>
         <v>Permission</v>
       </c>
-      <c r="D42" s="37" t="str">
+      <c r="D42" s="31" t="str">
         <f>$D$1</f>
         <v>BackupDB</v>
       </c>
-      <c r="E42" s="37" t="str">
+      <c r="E42" s="31" t="str">
         <f>$E$1</f>
         <v>RestoreDB</v>
       </c>
-      <c r="F42" s="37" t="str">
+      <c r="F42" s="31" t="str">
         <f>$F$1</f>
         <v>RadQuantity</v>
       </c>
-      <c r="G42" s="37" t="str">
+      <c r="G42" s="31" t="str">
         <f>$G$1</f>
         <v>DoseQuantity</v>
       </c>
-      <c r="H42" s="37" t="str">
+      <c r="H42" s="31" t="str">
         <f>$H$1</f>
         <v>Unit</v>
       </c>
-      <c r="I42" s="37" t="str">
+      <c r="I42" s="31" t="str">
         <f>$I$1</f>
         <v>TM</v>
       </c>
-      <c r="J42" s="37" t="str">
+      <c r="J42" s="31" t="str">
         <f>$J$1</f>
         <v>Certificate</v>
       </c>
-      <c r="K42" s="37" t="str">
+      <c r="K42" s="31" t="str">
         <f>$K$1</f>
         <v>Customer</v>
       </c>
-      <c r="L42" s="37" t="str">
+      <c r="L42" s="31" t="str">
         <f>$L$1</f>
         <v>City</v>
       </c>
-      <c r="M42" s="37" t="str">
+      <c r="M42" s="31" t="str">
         <f>$M$1</f>
         <v>MachineName</v>
       </c>
-      <c r="N42" s="37" t="str">
+      <c r="N42" s="31" t="str">
         <f>$N$1</f>
         <v>MachineType</v>
       </c>
-      <c r="O42" s="38" t="str">
+      <c r="O42" s="32" t="str">
         <f>$O$1</f>
         <v>SensorType</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="B43" s="39">
-        <v>1</v>
-      </c>
-      <c r="C43" s="39">
-        <v>1</v>
-      </c>
-      <c r="D43" s="39">
-        <v>1</v>
-      </c>
-      <c r="E43" s="39">
-        <v>1</v>
-      </c>
-      <c r="F43" s="39">
-        <v>1</v>
-      </c>
-      <c r="G43" s="39">
-        <v>1</v>
-      </c>
-      <c r="H43" s="39">
-        <v>1</v>
-      </c>
-      <c r="I43" s="39">
-        <v>1</v>
-      </c>
-      <c r="J43" s="39">
-        <v>1</v>
-      </c>
-      <c r="K43" s="39">
-        <v>1</v>
-      </c>
-      <c r="L43" s="39">
-        <v>1</v>
-      </c>
-      <c r="M43" s="39">
-        <v>1</v>
-      </c>
-      <c r="N43" s="39">
-        <v>1</v>
-      </c>
-      <c r="O43" s="40">
+      <c r="A43" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="B43" s="33">
+        <v>1</v>
+      </c>
+      <c r="C43" s="33">
+        <v>1</v>
+      </c>
+      <c r="D43" s="33">
+        <v>1</v>
+      </c>
+      <c r="E43" s="33">
+        <v>1</v>
+      </c>
+      <c r="F43" s="33">
+        <v>1</v>
+      </c>
+      <c r="G43" s="33">
+        <v>1</v>
+      </c>
+      <c r="H43" s="33">
+        <v>1</v>
+      </c>
+      <c r="I43" s="33">
+        <v>1</v>
+      </c>
+      <c r="J43" s="33">
+        <v>1</v>
+      </c>
+      <c r="K43" s="33">
+        <v>1</v>
+      </c>
+      <c r="L43" s="33">
+        <v>1</v>
+      </c>
+      <c r="M43" s="33">
+        <v>1</v>
+      </c>
+      <c r="N43" s="33">
+        <v>1</v>
+      </c>
+      <c r="O43" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="B44" s="28">
-        <v>1</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28">
-        <v>1</v>
-      </c>
-      <c r="E44" s="28">
-        <v>1</v>
-      </c>
-      <c r="F44" s="28">
-        <v>1</v>
-      </c>
-      <c r="G44" s="28">
-        <v>1</v>
-      </c>
-      <c r="H44" s="28">
-        <v>1</v>
-      </c>
-      <c r="I44" s="28">
-        <v>1</v>
-      </c>
-      <c r="J44" s="28">
-        <v>1</v>
-      </c>
-      <c r="K44" s="28">
-        <v>1</v>
-      </c>
-      <c r="L44" s="28">
-        <v>1</v>
-      </c>
-      <c r="M44" s="28">
-        <v>1</v>
-      </c>
-      <c r="N44" s="28">
-        <v>1</v>
-      </c>
-      <c r="O44" s="41">
+      <c r="A44" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+      <c r="M44" s="3">
+        <v>1</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
+      <c r="O44" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="B45" s="28">
-        <v>1</v>
-      </c>
-      <c r="C45" s="28">
-        <v>1</v>
-      </c>
-      <c r="D45" s="28">
-        <v>1</v>
-      </c>
-      <c r="E45" s="28">
-        <v>1</v>
-      </c>
-      <c r="F45" s="28">
-        <v>1</v>
-      </c>
-      <c r="G45" s="28">
-        <v>1</v>
-      </c>
-      <c r="H45" s="28">
-        <v>1</v>
-      </c>
-      <c r="I45" s="28">
-        <v>1</v>
-      </c>
-      <c r="J45" s="28">
-        <v>1</v>
-      </c>
-      <c r="K45" s="28">
-        <v>1</v>
-      </c>
-      <c r="L45" s="28">
-        <v>1</v>
-      </c>
-      <c r="M45" s="28">
-        <v>1</v>
-      </c>
-      <c r="N45" s="28">
-        <v>1</v>
-      </c>
-      <c r="O45" s="41">
+      <c r="A45" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+      <c r="O45" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="B46" s="44">
-        <v>1</v>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28">
-        <v>1</v>
-      </c>
-      <c r="E46" s="28">
-        <v>1</v>
-      </c>
-      <c r="F46" s="28">
-        <v>1</v>
-      </c>
-      <c r="G46" s="28">
-        <v>1</v>
-      </c>
-      <c r="H46" s="28">
-        <v>1</v>
-      </c>
-      <c r="I46" s="28">
-        <v>1</v>
-      </c>
-      <c r="J46" s="28">
-        <v>1</v>
-      </c>
-      <c r="K46" s="28">
-        <v>1</v>
-      </c>
-      <c r="L46" s="28">
-        <v>1</v>
-      </c>
-      <c r="M46" s="28">
-        <v>1</v>
-      </c>
-      <c r="N46" s="28">
-        <v>1</v>
-      </c>
-      <c r="O46" s="41">
+      <c r="A46" s="27" t="s">
+        <v>535</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+      <c r="O46" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29">
-        <v>1</v>
-      </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="42"/>
+      <c r="A47" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25">
+        <v>1</v>
+      </c>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="36"/>
     </row>
     <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="35" t="s">
-        <v>543</v>
-      </c>
-      <c r="B48" s="43">
+      <c r="A48" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="B48" s="37">
         <f>B47+B46*2+B45*2^2+B44*2^3+B43*2^4</f>
         <v>30</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="37">
         <f t="shared" ref="C48:O48" si="58">C47+C46*2+C45*2^2+C44*2^3+C43*2^4</f>
         <v>20</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="37">
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E48" s="37">
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
-      <c r="F48" s="43">
+      <c r="F48" s="37">
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
-      <c r="G48" s="43">
+      <c r="G48" s="37">
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
-      <c r="H48" s="43">
+      <c r="H48" s="37">
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
-      <c r="I48" s="43">
+      <c r="I48" s="37">
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
-      <c r="J48" s="43">
+      <c r="J48" s="37">
         <f t="shared" si="58"/>
         <v>31</v>
       </c>
-      <c r="K48" s="43">
+      <c r="K48" s="37">
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
-      <c r="L48" s="43">
+      <c r="L48" s="37">
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
-      <c r="M48" s="43">
+      <c r="M48" s="37">
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
-      <c r="N48" s="43">
+      <c r="N48" s="37">
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
-      <c r="O48" s="43">
+      <c r="O48" s="37">
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
@@ -11143,7 +11050,7 @@
       <c r="B2" t="s">
         <v>434</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>662</v>
       </c>
       <c r="D2" s="6">
@@ -11152,22 +11059,22 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="H2" s="45" t="str">
+      <c r="H2" s="38" t="str">
         <f>_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'",A2,"') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'",A2,"', N'",B2,"',", C2, ",",D2,", ",E2,"); END")</f>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Cs-137') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Cs-137', N'Cs-137',662,0.03, 1); END</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
@@ -11176,12 +11083,12 @@
     </row>
     <row r="3" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3" t="s">
         <v>492</v>
       </c>
-      <c r="B3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>83.3</v>
       </c>
       <c r="D3" s="6">
@@ -11190,22 +11097,22 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="H3" s="45" t="str">
+      <c r="H3" s="38" t="str">
         <f t="shared" ref="H3:H25" si="0">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'",A3,"') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'",A3,"', N'",B3,"',", C3, ",",D3,", ",E3,"); END")</f>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO N100') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO N100', N'X-ray ISO N100',83.3,0.04, 1); END</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -11219,7 +11126,7 @@
       <c r="B4" t="s">
         <v>435</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>1252.5</v>
       </c>
       <c r="D4" s="6">
@@ -11228,22 +11135,22 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="H4" s="45" t="str">
+      <c r="H4" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Co-60') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Co-60', N'Co-60',1252.5,0.03, 1); END</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -11251,13 +11158,13 @@
       <c r="Y4" s="8"/>
     </row>
     <row r="5" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>33.299999999999997</v>
       </c>
       <c r="D5" s="6">
@@ -11266,22 +11173,22 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="H5" s="45" t="str">
+      <c r="H5" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO N40') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO N40', N'X-ray ISO N40',33.3,0.04, 1); END</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
@@ -11289,13 +11196,13 @@
       <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>47.9</v>
       </c>
       <c r="D6" s="6">
@@ -11304,22 +11211,22 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="H6" s="45" t="str">
+      <c r="H6" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO N60') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO N60', N'X-ray ISO N60',47.9,0.04, 1); END</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
@@ -11327,13 +11234,13 @@
       <c r="Y6" s="8"/>
     </row>
     <row r="7" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>65.2</v>
       </c>
       <c r="D7" s="6">
@@ -11342,22 +11249,22 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="H7" s="45" t="str">
+      <c r="H7" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO N80') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO N80', N'X-ray ISO N80',65.2,0.04, 1); END</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
@@ -11365,13 +11272,13 @@
       <c r="Y7" s="8"/>
     </row>
     <row r="8" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>100</v>
       </c>
       <c r="D8" s="6">
@@ -11380,22 +11287,22 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="H8" s="45" t="str">
+      <c r="H8" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO N120') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO N120', N'X-ray ISO N120',100,0.04, 1); END</v>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
@@ -11403,13 +11310,13 @@
       <c r="Y8" s="8"/>
     </row>
     <row r="9" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>118</v>
       </c>
       <c r="D9" s="6">
@@ -11418,22 +11325,22 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="H9" s="45" t="str">
+      <c r="H9" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO N150') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO N150', N'X-ray ISO N150',118,0.04, 1); END</v>
       </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
@@ -11441,13 +11348,13 @@
       <c r="Y9" s="8"/>
     </row>
     <row r="10" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>47.8</v>
       </c>
       <c r="D10" s="6">
@@ -11456,22 +11363,22 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="H10" s="45" t="str">
+      <c r="H10" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO L55') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO L55', N'X-ray ISO L55',47.8,0.04, 1); END</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
@@ -11479,13 +11386,13 @@
       <c r="Y10" s="8"/>
     </row>
     <row r="11" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>60.6</v>
       </c>
       <c r="D11" s="6">
@@ -11494,22 +11401,22 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="H11" s="45" t="str">
+      <c r="H11" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO L70') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO L70', N'X-ray ISO L70',60.6,0.04, 1); END</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
@@ -11517,13 +11424,13 @@
       <c r="Y11" s="8"/>
     </row>
     <row r="12" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>86.8</v>
       </c>
       <c r="D12" s="6">
@@ -11532,22 +11439,22 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="H12" s="45" t="str">
+      <c r="H12" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO L100') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO L100', N'X-ray ISO L100',86.8,0.04, 0); END</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
@@ -11555,13 +11462,13 @@
       <c r="Y12" s="8"/>
     </row>
     <row r="13" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>109</v>
       </c>
       <c r="D13" s="6">
@@ -11570,22 +11477,22 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="H13" s="45" t="str">
+      <c r="H13" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO L125') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO L125', N'X-ray ISO L125',109,0.04, 0); END</v>
       </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
@@ -11593,13 +11500,13 @@
       <c r="Y13" s="8"/>
     </row>
     <row r="14" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>25.4</v>
       </c>
       <c r="D14" s="6">
@@ -11608,22 +11515,22 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="H14" s="45" t="str">
+      <c r="H14" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO H40') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO H40', N'X-ray ISO H40',25.4,0.04, 0); END</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
@@ -11631,13 +11538,13 @@
       <c r="Y14" s="8"/>
     </row>
     <row r="15" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>38</v>
       </c>
       <c r="D15" s="6">
@@ -11646,22 +11553,22 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="H15" s="45" t="str">
+      <c r="H15" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO H60') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO H60', N'X-ray ISO H60',38,0.04, 0); END</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
@@ -11669,13 +11576,13 @@
       <c r="Y15" s="8"/>
     </row>
     <row r="16" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <v>48.8</v>
       </c>
       <c r="D16" s="6">
@@ -11684,22 +11591,22 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="H16" s="45" t="str">
+      <c r="H16" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO H80') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO H80', N'X-ray ISO H80',48.8,0.04, 0); END</v>
       </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
@@ -11707,13 +11614,13 @@
       <c r="Y16" s="8"/>
     </row>
     <row r="17" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>57.3</v>
       </c>
       <c r="D17" s="6">
@@ -11722,22 +11629,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="H17" s="45" t="str">
+      <c r="H17" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO H100') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO H100', N'X-ray ISO H100',57.3,0.04, 0); END</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
@@ -11745,13 +11652,13 @@
       <c r="Y17" s="8"/>
     </row>
     <row r="18" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <v>78</v>
       </c>
       <c r="D18" s="6">
@@ -11760,22 +11667,22 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="H18" s="45" t="str">
+      <c r="H18" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO H150') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO H150', N'X-ray ISO H150',78,0.04, 0); END</v>
       </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
@@ -11783,13 +11690,13 @@
       <c r="Y18" s="8"/>
     </row>
     <row r="19" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>29.8</v>
       </c>
       <c r="D19" s="6">
@@ -11798,22 +11705,22 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="H19" s="45" t="str">
+      <c r="H19" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO W40') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO W40', N'X-ray ISO W40',29.8,0.04, 0); END</v>
       </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
@@ -11821,13 +11728,13 @@
       <c r="Y19" s="8"/>
     </row>
     <row r="20" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>44.8</v>
       </c>
       <c r="D20" s="6">
@@ -11836,22 +11743,22 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="H20" s="45" t="str">
+      <c r="H20" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO W60') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO W60', N'X-ray ISO W60',44.8,0.04, 0); END</v>
       </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
@@ -11859,13 +11766,13 @@
       <c r="Y20" s="8"/>
     </row>
     <row r="21" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>56.5</v>
       </c>
       <c r="D21" s="6">
@@ -11874,22 +11781,22 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="H21" s="45" t="str">
+      <c r="H21" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO W80') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO W80', N'X-ray ISO W80',56.5,0.04, 0); END</v>
       </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
@@ -11897,13 +11804,13 @@
       <c r="Y21" s="8"/>
     </row>
     <row r="22" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <v>79.099999999999994</v>
       </c>
       <c r="D22" s="6">
@@ -11912,22 +11819,22 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="H22" s="45" t="str">
+      <c r="H22" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO W110') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO W110', N'X-ray ISO W110',79.1,0.04, 0); END</v>
       </c>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
@@ -11935,13 +11842,13 @@
       <c r="Y22" s="8"/>
     </row>
     <row r="23" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>105</v>
       </c>
       <c r="D23" s="6">
@@ -11950,22 +11857,22 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="H23" s="45" t="str">
+      <c r="H23" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Tia X ISO W150') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Tia X ISO W150', N'X-ray ISO W150',105,0.04, 0); END</v>
       </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
@@ -11979,7 +11886,7 @@
       <c r="B24" t="s">
         <v>443</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>1404</v>
       </c>
       <c r="D24" s="6">
@@ -11988,22 +11895,22 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="H24" s="45" t="str">
+      <c r="H24" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Sr-90/Y-90') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Sr-90/Y-90', N'Sr-90/Y-90',1404,0.05, 0); END</v>
       </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
@@ -12017,7 +11924,7 @@
       <c r="B25" t="s">
         <v>436</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>59.5</v>
       </c>
       <c r="D25" s="6">
@@ -12026,35 +11933,25 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="H25" s="45" t="str">
+      <c r="H25" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.RadQuantity where [NameVN] = N'Am-241') BEGIN INSERT INTO dbo.RadQuantity  ([NameVN], [NameEN],[Energy],[ReUnc], [IsActive]) VALUES (N'Am-241', N'Am-241',59.5,0.05, 0); END</v>
       </c>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="H2:T2"/>
-    <mergeCell ref="H4:T4"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="H20:T20"/>
     <mergeCell ref="H25:T25"/>
     <mergeCell ref="H5:T5"/>
     <mergeCell ref="H6:T6"/>
@@ -12069,6 +11966,16 @@
     <mergeCell ref="H12:T12"/>
     <mergeCell ref="H24:T24"/>
     <mergeCell ref="H14:T14"/>
+    <mergeCell ref="H2:T2"/>
+    <mergeCell ref="H4:T4"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="H18:T18"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="H20:T20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12144,7 +12051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA6C645-D470-4D7F-8F8D-FAC5C578D580}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -12186,28 +12093,28 @@
       <c r="D2" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="16">
-        <v>1</v>
-      </c>
-      <c r="G2" s="45" t="str">
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="G2" s="38" t="str">
         <f>_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.DoseQuantity where [NameVN] = N'",B2,"') BEGIN INSERT INTO dbo.DoseQuantity  ([NameVN],[NameEN],[Notation],[IsActive]) VALUES (N'",B2, " ' ", ",'", C2,  "', '", D2, "',",E2,"); END")</f>
         <v>if not exists (SELECT * FROM  dbo.DoseQuantity where [NameVN] = N'Kerma không khí') BEGIN INSERT INTO dbo.DoseQuantity  ([NameVN],[NameEN],[Notation],[IsActive]) VALUES (N'Kerma không khí ' ,'Air-Kerma', 'Ka',1); END</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
     </row>
     <row r="3" spans="1:22" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -12222,28 +12129,28 @@
       <c r="D3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="G3" s="45" t="str">
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="G3" s="38" t="str">
         <f t="shared" ref="G3:G7" si="0">_xlfn.CONCAT("if not exists (SELECT * FROM  dbo.DoseQuantity where [NameVN] = N'",B3,"') BEGIN INSERT INTO dbo.DoseQuantity  ([NameVN],[NameEN],[Notation],[IsActive]) VALUES (N'",B3, " ' ", ",'", C3,  "', '", D3, "',",E3,"); END")</f>
         <v>if not exists (SELECT * FROM  dbo.DoseQuantity where [NameVN] = N'Tương đương liều môi trường') BEGIN INSERT INTO dbo.DoseQuantity  ([NameVN],[NameEN],[Notation],[IsActive]) VALUES (N'Tương đương liều môi trường ' ,'Ambient Dose Equivalent', 'H*(10)',1); END</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
     </row>
     <row r="4" spans="1:22" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -12258,28 +12165,28 @@
       <c r="D4" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="G4" s="45" t="str">
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="G4" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.DoseQuantity where [NameVN] = N'Tương đương liều cá nhân') BEGIN INSERT INTO dbo.DoseQuantity  ([NameVN],[NameEN],[Notation],[IsActive]) VALUES (N'Tương đương liều cá nhân ' ,'Personal Dose Equivalent', 'Hp(10)',1); END</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
     </row>
     <row r="5" spans="1:22" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -12294,28 +12201,28 @@
       <c r="D5" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
-      <c r="G5" s="45" t="str">
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.DoseQuantity where [NameVN] = N'Liều hấp thụ') BEGIN INSERT INTO dbo.DoseQuantity  ([NameVN],[NameEN],[Notation],[IsActive]) VALUES (N'Liều hấp thụ ' ,'Absorbed Dose', 'D',1); END</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
     </row>
     <row r="6" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -12330,28 +12237,28 @@
       <c r="D6" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="45" t="str">
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.DoseQuantity where [NameVN] = N'Liều môi trường') BEGIN INSERT INTO dbo.DoseQuantity  ([NameVN],[NameEN],[Notation],[IsActive]) VALUES (N'Liều môi trường ' ,'Ambient Dose', 'H*',1); END</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
     </row>
     <row r="7" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -12366,28 +12273,28 @@
       <c r="D7" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="45" t="str">
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="38" t="str">
         <f t="shared" si="0"/>
         <v>if not exists (SELECT * FROM  dbo.DoseQuantity where [NameVN] = N'Liều cá nhân') BEGIN INSERT INTO dbo.DoseQuantity  ([NameVN],[NameEN],[Notation],[IsActive]) VALUES (N'Liều cá nhân ' ,'Personal Dose', 'Hp',1); END</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
